--- a/CD治疗 临床试验加case report总.xlsx
+++ b/CD治疗 临床试验加case report总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15800" windowHeight="6780" firstSheet="10" activeTab="14"/>
+    <workbookView windowWidth="15800" windowHeight="6780" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="生物制剂" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267">
   <si>
     <t>英夫利昔单抗致儿童严重过敏性休克1例</t>
   </si>
@@ -5640,33 +5640,6 @@
     <t>临床路径（药物+手术）</t>
   </si>
   <si>
-    <t>克罗恩病的临床治疗体会</t>
-  </si>
-  <si>
-    <t>刘玉霞 </t>
-  </si>
-  <si>
-    <t>15例CD</t>
-  </si>
-  <si>
-    <t>综述56</t>
-  </si>
-  <si>
-    <t> 克罗恩病综合治疗的疗效观察 </t>
-  </si>
-  <si>
-    <t>浙江临床医学</t>
-  </si>
-  <si>
-    <t>刘菲 陈卫昌 </t>
-  </si>
-  <si>
-    <t>综述52</t>
-  </si>
-  <si>
-    <t>内科综合治疗</t>
-  </si>
-  <si>
     <t>炎症性肠病患者肝胆肠外表现的检出及治疗情况调查</t>
   </si>
   <si>
@@ -8225,10 +8198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -8275,69 +8248,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8358,8 +8277,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8372,8 +8344,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8389,30 +8370,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8451,109 +8424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8565,13 +8436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8589,7 +8454,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8601,19 +8562,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8625,13 +8598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8736,21 +8709,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -8769,7 +8727,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8791,9 +8749,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8803,6 +8763,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8822,13 +8791,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8840,10 +8813,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8852,133 +8825,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11264,13 +11237,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>191135</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11288,7 +11261,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23780750"/>
+          <a:off x="0" y="22625050"/>
           <a:ext cx="191135" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11306,13 +11279,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>191135</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11330,7 +11303,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="25285700"/>
+          <a:off x="0" y="24130000"/>
           <a:ext cx="191135" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11348,13 +11321,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>191135</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11372,7 +11345,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="24615775"/>
+          <a:off x="0" y="23460075"/>
           <a:ext cx="191135" cy="144145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11390,13 +11363,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>191135</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>191135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11414,7 +11387,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="51000025"/>
+          <a:off x="0" y="49844325"/>
           <a:ext cx="191135" cy="191135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11432,13 +11405,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>191135</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>191135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11456,7 +11429,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="51000025"/>
+          <a:off x="0" y="49844325"/>
           <a:ext cx="191135" cy="191135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16915,10 +16888,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A18" sqref="$A18:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -17317,12 +17290,12 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="39" spans="1:7">
+    <row r="18" s="1" customFormat="1" ht="78.75" spans="1:7">
       <c r="A18" s="12" t="s">
         <v>1438</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1260</v>
+        <v>847</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>1439</v>
@@ -17333,57 +17306,60 @@
       <c r="E18" s="3" t="s">
         <v>1440</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="14" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" customFormat="1" ht="52.75" spans="1:8">
+      <c r="A19" s="5" t="s">
         <v>1441</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="52" spans="1:8">
-      <c r="A19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>1442</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>1443</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1444</v>
       </c>
       <c r="D19" s="3">
         <v>2015</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="F19" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>1445</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" ht="104.75" spans="1:8">
+      <c r="A20" s="5" t="s">
         <v>1446</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="78.75" spans="1:7">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>1448</v>
+      <c r="C20" s="6" t="s">
+        <v>1260</v>
       </c>
       <c r="D20" s="3">
         <v>2015</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>1449</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>1370</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" customFormat="1" ht="52.75" spans="1:8">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="65.75" spans="1:7">
       <c r="A21" s="5" t="s">
         <v>1450</v>
       </c>
@@ -17400,69 +17376,68 @@
         <v>1453</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>1386</v>
+        <v>397</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>1454</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" customFormat="1" ht="104.75" spans="1:8">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="22" customFormat="1" ht="65.75" spans="1:8">
+      <c r="A22" s="8" t="s">
         <v>1455</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>1456</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>1260</v>
+      <c r="C22" s="9" t="s">
+        <v>796</v>
       </c>
       <c r="D22" s="3">
         <v>2015</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>1457</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="52.75" spans="1:7">
+      <c r="A23" s="8" t="s">
         <v>1458</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="65.75" spans="1:7">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1461</v>
+      <c r="C23" s="9" t="s">
+        <v>1260</v>
       </c>
       <c r="D23" s="3">
         <v>2015</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="78.75" spans="1:7">
+      <c r="A24" s="8" t="s">
         <v>1462</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="24" customFormat="1" ht="65.75" spans="1:8">
-      <c r="A24" s="8" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>1465</v>
-      </c>
       <c r="C24" s="9" t="s">
-        <v>796</v>
+        <v>1260</v>
       </c>
       <c r="D24" s="3">
         <v>2015</v>
@@ -17471,501 +17446,494 @@
         <v>1435</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>1418</v>
+        <v>19</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="196" spans="1:6">
+      <c r="A25" s="19" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>1466</v>
       </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="52.75" spans="1:7">
-      <c r="A25" s="8" t="s">
+      <c r="C25" s="19" t="s">
         <v>1467</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="D25" s="19">
+        <v>2014</v>
+      </c>
+      <c r="E25" s="19">
+        <v>77</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>1468</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E25" s="3" t="s">
+    </row>
+    <row r="26" customFormat="1" ht="224" spans="1:8">
+      <c r="A26" s="19" t="s">
         <v>1469</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="B26" s="19" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="78.75" spans="1:7">
-      <c r="A26" s="8" t="s">
+      <c r="C26" s="19" t="s">
         <v>1471</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="D26" s="19">
+        <v>2014</v>
+      </c>
+      <c r="E26" s="19">
+        <v>91</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>1472</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" customFormat="1" ht="70" spans="1:8">
+      <c r="A27" s="19" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="196" spans="1:6">
-      <c r="A27" s="19" t="s">
+      <c r="B27" s="19" t="s">
         <v>1474</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>1475</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>1476</v>
       </c>
       <c r="D27" s="19">
         <v>2014</v>
       </c>
       <c r="E27" s="19">
-        <v>77</v>
-      </c>
-      <c r="F27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" customFormat="1" ht="70" spans="1:8">
+      <c r="A28" s="19" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="28" customFormat="1" ht="224" spans="1:8">
-      <c r="A28" s="19" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>1479</v>
-      </c>
       <c r="C28" s="19" t="s">
-        <v>1480</v>
+        <v>263</v>
       </c>
       <c r="D28" s="19">
         <v>2014</v>
       </c>
       <c r="E28" s="19">
-        <v>91</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>1481</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F28" s="19"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" customFormat="1" ht="70" spans="1:8">
+    <row r="29" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A29" s="19" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="D29" s="19">
         <v>2014</v>
       </c>
       <c r="E29" s="19">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F29" s="19"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" customFormat="1" ht="70" spans="1:8">
+    </row>
+    <row r="30" customFormat="1" ht="56" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>263</v>
+        <v>650</v>
       </c>
       <c r="D30" s="19">
         <v>2014</v>
       </c>
       <c r="E30" s="19">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="70" spans="1:6">
+    <row r="31" customFormat="1" ht="56" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1489</v>
+        <v>508</v>
       </c>
       <c r="D31" s="19">
         <v>2014</v>
       </c>
       <c r="E31" s="19">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F31" s="19"/>
-    </row>
-    <row r="32" customFormat="1" ht="56" spans="1:8">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="70" spans="1:7">
       <c r="A32" s="19" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>650</v>
+        <v>1487</v>
       </c>
       <c r="D32" s="19">
         <v>2014</v>
       </c>
       <c r="E32" s="19">
-        <v>60</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" customFormat="1" ht="56" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="112" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="D33" s="19">
         <v>2014</v>
       </c>
       <c r="E33" s="19">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="70" spans="1:7">
+    <row r="34" customFormat="1" ht="70" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="D34" s="19">
         <v>2014</v>
       </c>
       <c r="E34" s="19">
-        <v>52</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>933</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" ht="112" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" customFormat="1" ht="28" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>579</v>
+        <v>437</v>
       </c>
       <c r="D35" s="19">
         <v>2014</v>
       </c>
       <c r="E35" s="19">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" customFormat="1" ht="70" spans="1:8">
+    <row r="36" customFormat="1" ht="56" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="D36" s="19">
         <v>2014</v>
       </c>
       <c r="E36" s="19">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" customFormat="1" ht="28" spans="1:8">
+    <row r="37" customFormat="1" ht="98" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>437</v>
+        <v>1501</v>
       </c>
       <c r="D37" s="19">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E37" s="19">
-        <v>13</v>
-      </c>
-      <c r="F37" s="19"/>
+        <v>83</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>1502</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" customFormat="1" ht="56" spans="1:8">
+    <row r="38" customFormat="1" ht="98" spans="1:8">
       <c r="A38" s="19" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D38" s="19">
+        <v>2013</v>
+      </c>
+      <c r="E38" s="19">
+        <v>40</v>
+      </c>
+      <c r="F38" s="19" t="s">
         <v>1505</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D38" s="19">
-        <v>2014</v>
-      </c>
-      <c r="E38" s="19">
-        <v>10</v>
-      </c>
-      <c r="F38" s="19"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" customFormat="1" ht="98" spans="1:8">
+    <row r="39" customFormat="1" ht="56" spans="1:8">
       <c r="A39" s="19" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>1508</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>1510</v>
       </c>
       <c r="D39" s="19">
         <v>2013</v>
       </c>
       <c r="E39" s="19">
-        <v>83</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>1511</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F39" s="19"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" customFormat="1" ht="98" spans="1:8">
+    <row r="40" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A40" s="19" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>437</v>
+        <v>653</v>
       </c>
       <c r="D40" s="19">
         <v>2013</v>
       </c>
       <c r="E40" s="19">
-        <v>40</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" customFormat="1" ht="56" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" customFormat="1" ht="70" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>1517</v>
+        <v>178</v>
       </c>
       <c r="D41" s="19">
         <v>2013</v>
       </c>
       <c r="E41" s="19">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="70" spans="1:6">
+    <row r="42" customFormat="1" ht="70" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>653</v>
+        <v>1475</v>
       </c>
       <c r="D42" s="19">
         <v>2013</v>
       </c>
       <c r="E42" s="19">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F42" s="19"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" customFormat="1" ht="70" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>178</v>
+        <v>508</v>
       </c>
       <c r="D43" s="19">
         <v>2013</v>
       </c>
       <c r="E43" s="19">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" customFormat="1" ht="70" spans="1:8">
+    <row r="44" customFormat="1" ht="56" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>1484</v>
+        <v>1519</v>
       </c>
       <c r="D44" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E44" s="19">
-        <v>17</v>
-      </c>
-      <c r="F44" s="19"/>
+        <v>162</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>1520</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" customFormat="1" ht="70" spans="1:8">
+    <row r="45" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A45" s="19" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D45" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E45" s="19">
-        <v>16</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>1523</v>
+      </c>
     </row>
     <row r="46" customFormat="1" ht="56" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>1528</v>
+        <v>190</v>
       </c>
       <c r="D46" s="19">
         <v>2012</v>
       </c>
       <c r="E46" s="19">
-        <v>162</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>1529</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="F46" s="19"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="70" spans="1:6">
+    <row r="47" customFormat="1" ht="56" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>493</v>
+        <v>229</v>
       </c>
       <c r="D47" s="19">
         <v>2012</v>
       </c>
       <c r="E47" s="19">
-        <v>69</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" ht="56" spans="1:8">
+        <v>228</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" customFormat="1" ht="42" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>190</v>
+        <v>1530</v>
       </c>
       <c r="D48" s="19">
         <v>2012</v>
       </c>
       <c r="E48" s="19">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="1"/>
@@ -17973,307 +17941,307 @@
     </row>
     <row r="49" customFormat="1" ht="56" spans="1:8">
       <c r="A49" s="19" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>229</v>
+        <v>1533</v>
       </c>
       <c r="D49" s="19">
         <v>2012</v>
       </c>
       <c r="E49" s="19">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" customFormat="1" ht="42" spans="1:8">
+    <row r="50" customFormat="1" ht="84" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="D50" s="19">
         <v>2012</v>
       </c>
       <c r="E50" s="19">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" customFormat="1" ht="56" spans="1:8">
+    <row r="51" customFormat="1" ht="84" spans="1:8">
       <c r="A51" s="19" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1542</v>
+        <v>1271</v>
       </c>
       <c r="D51" s="19">
         <v>2012</v>
       </c>
       <c r="E51" s="19">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" customFormat="1" ht="84" spans="1:8">
+    <row r="52" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A52" s="19" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D52" s="19">
         <v>2012</v>
       </c>
       <c r="E52" s="19">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F52" s="19"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" customFormat="1" ht="84" spans="1:8">
+    </row>
+    <row r="53" s="1" customFormat="1" ht="98" spans="1:6">
       <c r="A53" s="19" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>1271</v>
+        <v>178</v>
       </c>
       <c r="D53" s="19">
         <v>2012</v>
       </c>
       <c r="E53" s="19">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F53" s="19"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="42" spans="1:6">
+    </row>
+    <row r="54" customFormat="1" ht="42" spans="1:8">
       <c r="A54" s="19" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="D54" s="19">
         <v>2012</v>
       </c>
       <c r="E54" s="19">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F54" s="19"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="98" spans="1:6">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A55" s="19" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D55" s="19">
+        <v>2011</v>
+      </c>
+      <c r="E55" s="19">
+        <v>858</v>
+      </c>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="84" spans="1:6">
+      <c r="A56" s="19" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>1551</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>1552</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="19">
-        <v>2012</v>
-      </c>
-      <c r="E55" s="19">
-        <v>50</v>
-      </c>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" customFormat="1" ht="42" spans="1:8">
-      <c r="A56" s="19" t="s">
+      <c r="D56" s="19">
+        <v>2011</v>
+      </c>
+      <c r="E56" s="19">
+        <v>197</v>
+      </c>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" customFormat="1" ht="56" spans="1:8">
+      <c r="A57" s="19" t="s">
         <v>1553</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B57" s="19" t="s">
         <v>1554</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>1555</v>
-      </c>
-      <c r="D56" s="19">
-        <v>2012</v>
-      </c>
-      <c r="E56" s="19">
-        <v>24</v>
-      </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="70" spans="1:6">
-      <c r="A57" s="19" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>1558</v>
       </c>
       <c r="D57" s="19">
         <v>2011</v>
       </c>
       <c r="E57" s="19">
-        <v>858</v>
+        <v>116</v>
       </c>
       <c r="F57" s="19"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="84" spans="1:6">
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A58" s="19" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>1561</v>
+        <v>1221</v>
       </c>
       <c r="D58" s="19">
         <v>2011</v>
       </c>
       <c r="E58" s="19">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="F58" s="19"/>
     </row>
-    <row r="59" customFormat="1" ht="56" spans="1:8">
+    <row r="59" customFormat="1" ht="70" spans="1:8">
       <c r="A59" s="19" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>1564</v>
+        <v>1530</v>
       </c>
       <c r="D59" s="19">
         <v>2011</v>
       </c>
       <c r="E59" s="19">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="56" spans="1:6">
+    <row r="60" customFormat="1" ht="42" spans="1:8">
       <c r="A60" s="19" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>1221</v>
+        <v>1562</v>
       </c>
       <c r="D60" s="19">
         <v>2011</v>
       </c>
       <c r="E60" s="19">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F60" s="19"/>
-    </row>
-    <row r="61" customFormat="1" ht="70" spans="1:8">
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A61" s="19" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>1539</v>
+        <v>1565</v>
       </c>
       <c r="D61" s="19">
         <v>2011</v>
       </c>
       <c r="E61" s="19">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F61" s="19"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" customFormat="1" ht="42" spans="1:8">
+    </row>
+    <row r="62" customFormat="1" ht="56" spans="1:8">
       <c r="A62" s="19" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D62" s="19">
         <v>2011</v>
       </c>
       <c r="E62" s="19">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="56" spans="1:6">
+    <row r="63" customFormat="1" ht="42" spans="1:8">
       <c r="A63" s="19" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D63" s="19">
         <v>2011</v>
       </c>
       <c r="E63" s="19">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F63" s="19"/>
-    </row>
-    <row r="64" customFormat="1" ht="56" spans="1:8">
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" customFormat="1" ht="42" spans="1:8">
       <c r="A64" s="19" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>1577</v>
+        <v>1227</v>
       </c>
       <c r="D64" s="19">
         <v>2011</v>
       </c>
       <c r="E64" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="1"/>
@@ -18281,585 +18249,585 @@
     </row>
     <row r="65" customFormat="1" ht="42" spans="1:8">
       <c r="A65" s="19" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>1580</v>
+        <v>434</v>
       </c>
       <c r="D65" s="19">
         <v>2011</v>
       </c>
       <c r="E65" s="19">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" customFormat="1" ht="42" spans="1:8">
+    <row r="66" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A66" s="19" t="s">
-        <v>1581</v>
+        <v>1528</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>1227</v>
+        <v>1530</v>
       </c>
       <c r="D66" s="19">
         <v>2011</v>
       </c>
       <c r="E66" s="19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F66" s="19"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" customFormat="1" ht="42" spans="1:8">
+    </row>
+    <row r="67" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A67" s="19" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>434</v>
+        <v>1072</v>
       </c>
       <c r="D67" s="19">
         <v>2011</v>
       </c>
       <c r="E67" s="19">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F67" s="19"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="42" spans="1:6">
+    </row>
+    <row r="68" customFormat="1" ht="70" spans="1:6">
       <c r="A68" s="19" t="s">
-        <v>1537</v>
+        <v>1579</v>
       </c>
       <c r="B68" s="19" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D68" s="19">
+        <v>2010</v>
+      </c>
+      <c r="E68" s="19">
+        <v>132</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="84" spans="1:8">
+      <c r="A69" s="19" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>1585</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D68" s="19">
-        <v>2011</v>
-      </c>
-      <c r="E68" s="19">
-        <v>10</v>
-      </c>
-      <c r="F68" s="19"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="56" spans="1:6">
-      <c r="A69" s="19" t="s">
+      <c r="D69" s="19">
+        <v>2010</v>
+      </c>
+      <c r="E69" s="19">
+        <v>158</v>
+      </c>
+      <c r="F69" s="19"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" customFormat="1" ht="98" spans="1:8">
+      <c r="A70" s="19" t="s">
         <v>1586</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B70" s="19" t="s">
         <v>1587</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D69" s="19">
-        <v>2011</v>
-      </c>
-      <c r="E69" s="19">
-        <v>34</v>
-      </c>
-      <c r="F69" s="19"/>
-    </row>
-    <row r="70" customFormat="1" ht="70" spans="1:6">
-      <c r="A70" s="19" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>1589</v>
-      </c>
       <c r="C70" s="19" t="s">
-        <v>1590</v>
+        <v>1288</v>
       </c>
       <c r="D70" s="19">
         <v>2010</v>
       </c>
       <c r="E70" s="19">
-        <v>132</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" ht="84" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="F70" s="19"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A71" s="19" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1593</v>
+        <v>1580</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>1594</v>
+        <v>1549</v>
       </c>
       <c r="D71" s="19">
         <v>2010</v>
       </c>
       <c r="E71" s="19">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="F71" s="19"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" customFormat="1" ht="98" spans="1:8">
+    </row>
+    <row r="72" customFormat="1" ht="56" spans="1:8">
       <c r="A72" s="19" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>1288</v>
+        <v>1072</v>
       </c>
       <c r="D72" s="19">
         <v>2010</v>
       </c>
       <c r="E72" s="19">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="56" spans="1:6">
+    <row r="73" customFormat="1" ht="56" spans="1:8">
       <c r="A73" s="19" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>1558</v>
+        <v>434</v>
       </c>
       <c r="D73" s="19">
         <v>2010</v>
       </c>
       <c r="E73" s="19">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F73" s="19"/>
-    </row>
-    <row r="74" customFormat="1" ht="56" spans="1:8">
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="98" spans="1:6">
       <c r="A74" s="19" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>1072</v>
+        <v>1546</v>
       </c>
       <c r="D74" s="19">
         <v>2010</v>
       </c>
       <c r="E74" s="19">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F74" s="19"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" customFormat="1" ht="56" spans="1:8">
+    </row>
+    <row r="75" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A75" s="19" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>434</v>
+        <v>1597</v>
       </c>
       <c r="D75" s="19">
         <v>2010</v>
       </c>
       <c r="E75" s="19">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F75" s="19"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="98" spans="1:6">
       <c r="A76" s="19" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="19">
+        <v>2009</v>
+      </c>
+      <c r="E76" s="19">
+        <v>67</v>
+      </c>
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" customFormat="1" ht="84" spans="1:8">
+      <c r="A77" s="19" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>1602</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="D77" s="19">
+        <v>2009</v>
+      </c>
+      <c r="E77" s="19">
+        <v>66</v>
+      </c>
+      <c r="F77" s="19"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" customFormat="1" ht="98" spans="1:8">
+      <c r="A78" s="19" t="s">
         <v>1603</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D76" s="19">
-        <v>2010</v>
-      </c>
-      <c r="E76" s="19">
-        <v>11</v>
-      </c>
-      <c r="F76" s="19"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="56" spans="1:6">
-      <c r="A77" s="19" t="s">
+      <c r="B78" s="19" t="s">
         <v>1604</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D77" s="19">
-        <v>2010</v>
-      </c>
-      <c r="E77" s="19">
-        <v>11</v>
-      </c>
-      <c r="F77" s="19"/>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="98" spans="1:6">
-      <c r="A78" s="19" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>1608</v>
-      </c>
       <c r="C78" s="19" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D78" s="19">
         <v>2009</v>
       </c>
       <c r="E78" s="19">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F78" s="19"/>
-    </row>
-    <row r="79" customFormat="1" ht="84" spans="1:8">
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A79" s="19" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>1611</v>
+        <v>888</v>
       </c>
       <c r="D79" s="19">
         <v>2009</v>
       </c>
       <c r="E79" s="19">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F79" s="19"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" customFormat="1" ht="98" spans="1:8">
+    </row>
+    <row r="80" customFormat="1" ht="70" spans="1:8">
       <c r="A80" s="19" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="D80" s="19">
         <v>2009</v>
       </c>
       <c r="E80" s="19">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="42" spans="1:6">
+    <row r="81" customFormat="1" ht="70" spans="1:8">
       <c r="A81" s="19" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>888</v>
+        <v>505</v>
       </c>
       <c r="D81" s="19">
         <v>2009</v>
       </c>
       <c r="E81" s="19">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F81" s="19"/>
-    </row>
-    <row r="82" customFormat="1" ht="70" spans="1:8">
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A82" s="19" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>229</v>
+        <v>1555</v>
       </c>
       <c r="D82" s="19">
         <v>2009</v>
       </c>
       <c r="E82" s="19">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F82" s="19"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" customFormat="1" ht="70" spans="1:8">
+    </row>
+    <row r="83" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A83" s="19" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="D83" s="19">
         <v>2009</v>
       </c>
       <c r="E83" s="19">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F83" s="19"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A84" s="19" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>1564</v>
+        <v>490</v>
       </c>
       <c r="D84" s="19">
         <v>2009</v>
       </c>
       <c r="E84" s="19">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F84" s="19"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="56" spans="1:6">
+    <row r="85" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A85" s="19" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="D85" s="19">
+        <v>2008</v>
+      </c>
+      <c r="E85" s="19">
+        <v>142</v>
+      </c>
+      <c r="F85" s="19"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="70" spans="1:6">
+      <c r="A86" s="19" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D86" s="19">
+        <v>2008</v>
+      </c>
+      <c r="E86" s="19">
+        <v>116</v>
+      </c>
+      <c r="F86" s="19"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="42" spans="1:6">
+      <c r="A87" s="19" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>1622</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="C87" s="19" t="s">
         <v>1623</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="D85" s="19">
-        <v>2009</v>
-      </c>
-      <c r="E85" s="19">
-        <v>16</v>
-      </c>
-      <c r="F85" s="19"/>
-    </row>
-    <row r="86" s="1" customFormat="1" ht="42" spans="1:6">
-      <c r="A86" s="19" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="D86" s="19">
-        <v>2009</v>
-      </c>
-      <c r="E86" s="19">
-        <v>10</v>
-      </c>
-      <c r="F86" s="19"/>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="70" spans="1:6">
-      <c r="A87" s="19" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>579</v>
       </c>
       <c r="D87" s="19">
         <v>2008</v>
       </c>
       <c r="E87" s="19">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="F87" s="19"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="70" spans="1:6">
+    <row r="88" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A88" s="19" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>1288</v>
+        <v>1626</v>
       </c>
       <c r="D88" s="19">
         <v>2008</v>
       </c>
       <c r="E88" s="19">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="F88" s="19"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="42" spans="1:6">
+    <row r="89" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A89" s="19" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>1632</v>
+        <v>1281</v>
       </c>
       <c r="D89" s="19">
         <v>2008</v>
       </c>
       <c r="E89" s="19">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F89" s="19"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="42" spans="1:6">
+    <row r="90" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A90" s="19" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>1635</v>
+        <v>1498</v>
       </c>
       <c r="D90" s="19">
         <v>2008</v>
       </c>
       <c r="E90" s="19">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F90" s="19"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="70" spans="1:6">
+    <row r="91" customFormat="1" ht="42" spans="1:8">
       <c r="A91" s="19" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>1281</v>
+        <v>328</v>
       </c>
       <c r="D91" s="19">
         <v>2008</v>
       </c>
       <c r="E91" s="19">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F91" s="19"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="56" spans="1:6">
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A92" s="19" t="s">
-        <v>1638</v>
+        <v>1572</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>1507</v>
+        <v>1549</v>
       </c>
       <c r="D92" s="19">
         <v>2008</v>
       </c>
       <c r="E92" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F92" s="19"/>
     </row>
-    <row r="93" customFormat="1" ht="42" spans="1:8">
+    <row r="93" customFormat="1" ht="56" spans="1:8">
       <c r="A93" s="19" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>328</v>
+        <v>650</v>
       </c>
       <c r="D93" s="19">
         <v>2008</v>
       </c>
       <c r="E93" s="19">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="42" spans="1:6">
+    <row r="94" customFormat="1" ht="56" spans="1:8">
       <c r="A94" s="19" t="s">
-        <v>1581</v>
+        <v>1636</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>1558</v>
+        <v>1638</v>
       </c>
       <c r="D94" s="19">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E94" s="19">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F94" s="19"/>
-    </row>
-    <row r="95" customFormat="1" ht="56" spans="1:8">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" customFormat="1" ht="42" spans="1:8">
       <c r="A95" s="19" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>650</v>
+        <v>205</v>
       </c>
       <c r="D95" s="19">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E95" s="19">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="1"/>
@@ -18867,667 +18835,666 @@
     </row>
     <row r="96" customFormat="1" ht="56" spans="1:8">
       <c r="A96" s="19" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="D96" s="19">
         <v>2007</v>
       </c>
       <c r="E96" s="19">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="F96" s="19"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" customFormat="1" ht="42" spans="1:8">
+    <row r="97" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A97" s="19" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>205</v>
+        <v>1646</v>
       </c>
       <c r="D97" s="19">
         <v>2007</v>
       </c>
       <c r="E97" s="19">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F97" s="19"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
     </row>
     <row r="98" customFormat="1" ht="56" spans="1:8">
       <c r="A98" s="19" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="D98" s="19">
         <v>2007</v>
       </c>
       <c r="E98" s="19">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F98" s="19"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="42" spans="1:6">
+    <row r="99" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A99" s="19" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="D99" s="19">
         <v>2007</v>
       </c>
       <c r="E99" s="19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F99" s="19"/>
     </row>
-    <row r="100" customFormat="1" ht="56" spans="1:8">
+    <row r="100" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A100" s="19" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>1658</v>
+        <v>317</v>
       </c>
       <c r="D100" s="19">
         <v>2007</v>
       </c>
       <c r="E100" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F100" s="19"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="56" spans="1:6">
+    </row>
+    <row r="101" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A101" s="19" t="s">
-        <v>1659</v>
+        <v>1613</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>1661</v>
+        <v>608</v>
       </c>
       <c r="D101" s="19">
         <v>2007</v>
       </c>
       <c r="E101" s="19">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F101" s="19"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="56" spans="1:6">
+    <row r="102" s="1" customFormat="1" ht="112" spans="1:6">
       <c r="A102" s="19" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D102" s="19">
+        <v>2006</v>
+      </c>
+      <c r="E102" s="19">
+        <v>85</v>
+      </c>
+      <c r="F102" s="19"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="56" spans="1:6">
+      <c r="A103" s="19" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" s="19">
+        <v>2006</v>
+      </c>
+      <c r="E103" s="19">
+        <v>85</v>
+      </c>
+      <c r="F103" s="19"/>
+    </row>
+    <row r="104" customFormat="1" ht="70" spans="1:8">
+      <c r="A104" s="19" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>1662</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="C104" s="19" t="s">
         <v>1663</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="D102" s="19">
-        <v>2007</v>
-      </c>
-      <c r="E102" s="19">
-        <v>20</v>
-      </c>
-      <c r="F102" s="19"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="42" spans="1:6">
-      <c r="A103" s="19" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="D103" s="19">
-        <v>2007</v>
-      </c>
-      <c r="E103" s="19">
-        <v>16</v>
-      </c>
-      <c r="F103" s="19"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="112" spans="1:6">
-      <c r="A104" s="19" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>1667</v>
       </c>
       <c r="D104" s="19">
         <v>2006</v>
       </c>
       <c r="E104" s="19">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="F104" s="19"/>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="56" spans="1:6">
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" customFormat="1" ht="56" spans="1:8">
       <c r="A105" s="19" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>205</v>
+        <v>1666</v>
       </c>
       <c r="D105" s="19">
         <v>2006</v>
       </c>
       <c r="E105" s="19">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="F105" s="19"/>
-    </row>
-    <row r="106" customFormat="1" ht="70" spans="1:8">
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A106" s="19" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>1672</v>
+        <v>197</v>
       </c>
       <c r="D106" s="19">
         <v>2006</v>
       </c>
       <c r="E106" s="19">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F106" s="19"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-    </row>
-    <row r="107" customFormat="1" ht="56" spans="1:8">
+    </row>
+    <row r="107" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A107" s="19" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>1675</v>
+        <v>1227</v>
       </c>
       <c r="D107" s="19">
         <v>2006</v>
       </c>
       <c r="E107" s="19">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F107" s="19"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="56" spans="1:6">
+    </row>
+    <row r="108" s="1" customFormat="1" ht="56" spans="1:9">
       <c r="A108" s="19" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>197</v>
+        <v>1673</v>
       </c>
       <c r="D108" s="19">
         <v>2006</v>
       </c>
       <c r="E108" s="19">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F108" s="19"/>
-    </row>
-    <row r="109" s="1" customFormat="1" ht="42" spans="1:6">
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A109" s="19" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>1227</v>
+        <v>254</v>
       </c>
       <c r="D109" s="19">
         <v>2006</v>
       </c>
       <c r="E109" s="19">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F109" s="19"/>
     </row>
-    <row r="110" s="1" customFormat="1" ht="56" spans="1:9">
+    <row r="110" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A110" s="19" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="D110" s="19">
+        <v>2005</v>
+      </c>
+      <c r="E110" s="19">
+        <v>135</v>
+      </c>
+      <c r="F110" s="19"/>
+    </row>
+    <row r="111" customFormat="1" ht="70" spans="1:8">
+      <c r="A111" s="19" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="D111" s="19">
+        <v>2005</v>
+      </c>
+      <c r="E111" s="19">
+        <v>58</v>
+      </c>
+      <c r="F111" s="19"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="84" spans="1:6">
+      <c r="A112" s="19" t="s">
         <v>1680</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B112" s="19" t="s">
         <v>1681</v>
       </c>
-      <c r="C110" s="19" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D110" s="19">
-        <v>2006</v>
-      </c>
-      <c r="E110" s="19">
-        <v>28</v>
-      </c>
-      <c r="F110" s="19"/>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" s="1" customFormat="1" ht="56" spans="1:6">
-      <c r="A111" s="19" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D111" s="19">
-        <v>2006</v>
-      </c>
-      <c r="E111" s="19">
-        <v>25</v>
-      </c>
-      <c r="F111" s="19"/>
-    </row>
-    <row r="112" s="1" customFormat="1" ht="56" spans="1:6">
-      <c r="A112" s="19" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>1686</v>
-      </c>
       <c r="C112" s="19" t="s">
-        <v>532</v>
+        <v>205</v>
       </c>
       <c r="D112" s="19">
         <v>2005</v>
       </c>
       <c r="E112" s="19">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="F112" s="19"/>
     </row>
-    <row r="113" customFormat="1" ht="70" spans="1:8">
+    <row r="113" customFormat="1" ht="56" spans="1:7">
       <c r="A113" s="19" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>644</v>
+        <v>1684</v>
       </c>
       <c r="D113" s="19">
         <v>2005</v>
       </c>
       <c r="E113" s="19">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-    </row>
-    <row r="114" s="1" customFormat="1" ht="84" spans="1:6">
+    </row>
+    <row r="114" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A114" s="19" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>205</v>
+        <v>1687</v>
       </c>
       <c r="D114" s="19">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E114" s="19">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F114" s="19"/>
     </row>
     <row r="115" customFormat="1" ht="56" spans="1:7">
       <c r="A115" s="19" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="D115" s="19">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E115" s="19">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F115" s="19"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" s="1" customFormat="1" ht="42" spans="1:6">
+    <row r="116" customFormat="1" ht="56" spans="1:8">
       <c r="A116" s="19" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D116" s="19">
+        <v>2003</v>
+      </c>
+      <c r="E116" s="19">
+        <v>53</v>
+      </c>
+      <c r="F116" s="19"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" customFormat="1" ht="42" spans="1:8">
+      <c r="A117" s="19" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B117" s="19" t="s">
         <v>1694</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="C117" s="19" t="s">
         <v>1695</v>
       </c>
-      <c r="C116" s="19" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D116" s="19">
-        <v>2004</v>
-      </c>
-      <c r="E116" s="19">
-        <v>31</v>
-      </c>
-      <c r="F116" s="19"/>
-    </row>
-    <row r="117" customFormat="1" ht="56" spans="1:7">
-      <c r="A117" s="19" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>1699</v>
-      </c>
       <c r="D117" s="19">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E117" s="19">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="1"/>
-    </row>
-    <row r="118" customFormat="1" ht="56" spans="1:8">
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A118" s="19" t="s">
-        <v>1700</v>
+        <v>1647</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>1702</v>
+        <v>202</v>
       </c>
       <c r="D118" s="19">
         <v>2003</v>
       </c>
       <c r="E118" s="19">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F118" s="19"/>
-      <c r="G118" s="1"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" customFormat="1" ht="42" spans="1:8">
+    <row r="119" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A119" s="19" t="s">
-        <v>1656</v>
+        <v>1697</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="D119" s="19">
         <v>2003</v>
       </c>
       <c r="E119" s="19">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F119" s="19"/>
-      <c r="G119" s="1"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" s="1" customFormat="1" ht="70" spans="1:8">
+    <row r="120" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A120" s="19" t="s">
-        <v>1656</v>
+        <v>1700</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>202</v>
+        <v>1702</v>
       </c>
       <c r="D120" s="19">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E120" s="19">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F120" s="19"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" s="1" customFormat="1" ht="70" spans="1:8">
+    <row r="121" customFormat="1" ht="70" spans="1:8">
       <c r="A121" s="19" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D121" s="19">
+        <v>2001</v>
+      </c>
+      <c r="E121" s="19">
+        <v>20</v>
+      </c>
+      <c r="F121" s="19"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="42" spans="1:8">
+      <c r="A122" s="19" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B122" s="19" t="s">
         <v>1706</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="C122" s="19" t="s">
         <v>1707</v>
       </c>
-      <c r="C121" s="19" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D121" s="19">
-        <v>2003</v>
-      </c>
-      <c r="E121" s="19">
-        <v>23</v>
-      </c>
-      <c r="F121" s="19"/>
-      <c r="H121" s="3"/>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="56" spans="1:8">
-      <c r="A122" s="19" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>1711</v>
-      </c>
       <c r="D122" s="19">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E122" s="19">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F122" s="19"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" customFormat="1" ht="70" spans="1:8">
+    <row r="123" customFormat="1" ht="42" spans="1:8">
       <c r="A123" s="19" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>220</v>
+        <v>1308</v>
       </c>
       <c r="D123" s="19">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E123" s="19">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F123" s="19"/>
       <c r="G123" s="1"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" s="1" customFormat="1" ht="42" spans="1:8">
+    <row r="124" customFormat="1" ht="42" spans="1:8">
       <c r="A124" s="19" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D124" s="19">
+        <v>1997</v>
+      </c>
+      <c r="E124" s="19">
+        <v>68</v>
+      </c>
+      <c r="F124" s="19"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="70" spans="1:8">
+      <c r="A125" s="19" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C125" s="19" t="s">
         <v>1714</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="D125" s="19">
+        <v>1996</v>
+      </c>
+      <c r="E125" s="19">
+        <v>18</v>
+      </c>
+      <c r="F125" s="19"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" customFormat="1" ht="70" spans="1:8">
+      <c r="A126" s="19" t="s">
         <v>1715</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="B126" s="19" t="s">
         <v>1716</v>
       </c>
-      <c r="D124" s="19">
-        <v>2000</v>
-      </c>
-      <c r="E124" s="19">
-        <v>38</v>
-      </c>
-      <c r="F124" s="19"/>
-      <c r="H124" s="3"/>
-    </row>
-    <row r="125" customFormat="1" ht="42" spans="1:8">
-      <c r="A125" s="19" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D125" s="19">
-        <v>1999</v>
-      </c>
-      <c r="E125" s="19">
-        <v>90</v>
-      </c>
-      <c r="F125" s="19"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" customFormat="1" ht="42" spans="1:8">
-      <c r="A126" s="19" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>1720</v>
-      </c>
       <c r="C126" s="19" t="s">
-        <v>1072</v>
+        <v>560</v>
       </c>
       <c r="D126" s="19">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E126" s="19">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F126" s="19"/>
       <c r="G126" s="1"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" s="1" customFormat="1" ht="70" spans="1:8">
+    <row r="127" customFormat="1" ht="42" spans="1:8">
       <c r="A127" s="19" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>1723</v>
+        <v>888</v>
       </c>
       <c r="D127" s="19">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E127" s="19">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F127" s="19"/>
+      <c r="G127" s="1"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" customFormat="1" ht="70" spans="1:8">
+    <row r="128" customFormat="1" ht="42" spans="1:8">
       <c r="A128" s="19" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>560</v>
+        <v>1475</v>
       </c>
       <c r="D128" s="19">
         <v>1995</v>
       </c>
       <c r="E128" s="19">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F128" s="19"/>
       <c r="G128" s="1"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" customFormat="1" ht="42" spans="1:8">
+    <row r="129" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A129" s="19" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D129" s="19">
+        <v>1994</v>
+      </c>
+      <c r="E129" s="19">
+        <v>13</v>
+      </c>
+      <c r="F129" s="19"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" customFormat="1" ht="56" spans="1:8">
+      <c r="A130" s="19" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C130" s="19" t="s">
         <v>1726</v>
       </c>
-      <c r="B129" s="19" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>888</v>
-      </c>
-      <c r="D129" s="19">
-        <v>1995</v>
-      </c>
-      <c r="E129" s="19">
-        <v>34</v>
-      </c>
-      <c r="F129" s="19"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="3"/>
-    </row>
-    <row r="130" customFormat="1" ht="42" spans="1:8">
-      <c r="A130" s="19" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>1484</v>
-      </c>
       <c r="D130" s="19">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E130" s="19">
-        <v>25</v>
+        <v>942</v>
       </c>
       <c r="F130" s="19"/>
       <c r="G130" s="1"/>
@@ -19535,136 +19502,136 @@
     </row>
     <row r="131" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A131" s="19" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="D131" s="19">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E131" s="19">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F131" s="19"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" customFormat="1" ht="56" spans="1:8">
+    <row r="132" customFormat="1" ht="42" spans="1:8">
       <c r="A132" s="19" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D132" s="19">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="E132" s="19">
-        <v>942</v>
+        <v>13</v>
       </c>
       <c r="F132" s="19"/>
       <c r="G132" s="1"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" s="1" customFormat="1" ht="56" spans="1:8">
+    <row r="133" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A133" s="19" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>1738</v>
+        <v>1118</v>
       </c>
       <c r="D133" s="19">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="E133" s="19">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F133" s="19"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" customFormat="1" ht="42" spans="1:8">
+    <row r="134" customFormat="1" ht="70" spans="1:8">
       <c r="A134" s="19" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>1741</v>
+        <v>1695</v>
       </c>
       <c r="D134" s="19">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="E134" s="19">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F134" s="19"/>
       <c r="G134" s="1"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" s="1" customFormat="1" ht="42" spans="1:8">
+    <row r="135" customFormat="1" ht="70" spans="1:8">
       <c r="A135" s="19" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>1118</v>
+        <v>493</v>
       </c>
       <c r="D135" s="19">
         <v>1988</v>
       </c>
       <c r="E135" s="19">
+        <v>22</v>
+      </c>
+      <c r="F135" s="19"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="42" spans="1:8">
+      <c r="A136" s="19" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D136" s="19">
+        <v>1986</v>
+      </c>
+      <c r="E136" s="19">
         <v>34</v>
       </c>
-      <c r="F135" s="19"/>
-      <c r="H135" s="3"/>
-    </row>
-    <row r="136" customFormat="1" ht="70" spans="1:8">
-      <c r="A136" s="19" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D136" s="19">
-        <v>1988</v>
-      </c>
-      <c r="E136" s="19">
-        <v>27</v>
-      </c>
       <c r="F136" s="19"/>
-      <c r="G136" s="1"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" customFormat="1" ht="70" spans="1:8">
+    <row r="137" customFormat="1" ht="56" spans="1:8">
       <c r="A137" s="19" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>493</v>
+        <v>1742</v>
       </c>
       <c r="D137" s="19">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="E137" s="19">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F137" s="19"/>
       <c r="G137" s="1"/>
@@ -19672,330 +19639,291 @@
     </row>
     <row r="138" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A138" s="19" t="s">
-        <v>1726</v>
+        <v>1743</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>537</v>
+        <v>1745</v>
       </c>
       <c r="D138" s="19">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="E138" s="19">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F138" s="19"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" customFormat="1" ht="56" spans="1:8">
+    <row r="139" customFormat="1" ht="42" spans="1:8">
       <c r="A139" s="19" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>1751</v>
+        <v>554</v>
       </c>
       <c r="D139" s="19">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E139" s="19">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F139" s="19"/>
       <c r="G139" s="1"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" s="1" customFormat="1" ht="42" spans="1:8">
+    <row r="140" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A140" s="19" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D140" s="19">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E140" s="19">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F140" s="19"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" customFormat="1" ht="42" spans="1:8">
+    <row r="141" customFormat="1" ht="56" spans="1:8">
       <c r="A141" s="19" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="D141" s="19">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E141" s="19">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F141" s="19"/>
       <c r="G141" s="1"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" s="1" customFormat="1" ht="56" spans="1:8">
+    <row r="142" customFormat="1" ht="112" spans="1:8">
       <c r="A142" s="19" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>1759</v>
+        <v>625</v>
       </c>
       <c r="D142" s="19">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E142" s="19">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F142" s="19"/>
+      <c r="G142" s="1"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" customFormat="1" ht="56" spans="1:8">
+    <row r="143" customFormat="1" ht="70" spans="1:8">
       <c r="A143" s="19" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>625</v>
+        <v>1756</v>
       </c>
       <c r="D143" s="19">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="E143" s="19">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F143" s="19"/>
       <c r="G143" s="1"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" customFormat="1" ht="112" spans="1:8">
+    <row r="144" customFormat="1" ht="42" spans="1:8">
       <c r="A144" s="19" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>1762</v>
-      </c>
+        <v>1757</v>
+      </c>
+      <c r="B144" s="19"/>
       <c r="C144" s="19" t="s">
-        <v>625</v>
+        <v>1758</v>
       </c>
       <c r="D144" s="19">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E144" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F144" s="19"/>
       <c r="G144" s="1"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" customFormat="1" ht="70" spans="1:8">
+    <row r="145" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A145" s="19" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>1765</v>
+        <v>1167</v>
       </c>
       <c r="D145" s="19">
         <v>1981</v>
       </c>
       <c r="E145" s="19">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F145" s="19"/>
-      <c r="G145" s="1"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" customFormat="1" ht="42" spans="1:8">
+    <row r="146" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A146" s="19" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D146" s="19">
+        <v>1980</v>
+      </c>
+      <c r="E146" s="19">
+        <v>28</v>
+      </c>
+      <c r="F146" s="19"/>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="70" spans="1:8">
+      <c r="A147" s="19" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C147" s="19" t="s">
         <v>1766</v>
       </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D146" s="19">
-        <v>1981</v>
-      </c>
-      <c r="E146" s="19">
-        <v>19</v>
-      </c>
-      <c r="F146" s="19"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="3"/>
-    </row>
-    <row r="147" s="1" customFormat="1" ht="42" spans="1:8">
-      <c r="A147" s="19" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B147" s="19" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>1167</v>
-      </c>
       <c r="D147" s="19">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E147" s="19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F147" s="19"/>
       <c r="H147" s="3"/>
     </row>
     <row r="148" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A148" s="19" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>1772</v>
+        <v>1742</v>
       </c>
       <c r="D148" s="19">
         <v>1980</v>
       </c>
       <c r="E148" s="19">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F148" s="19"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" s="1" customFormat="1" ht="70" spans="1:8">
+    <row r="149" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A149" s="19" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>1775</v>
+        <v>602</v>
       </c>
       <c r="D149" s="19">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E149" s="19">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F149" s="19"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" s="1" customFormat="1" ht="42" spans="1:8">
+    <row r="150" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A150" s="19" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>1751</v>
+        <v>1729</v>
       </c>
       <c r="D150" s="19">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E150" s="19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F150" s="19"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" s="1" customFormat="1" ht="42" spans="1:8">
+    <row r="151" customFormat="1" ht="112" spans="1:8">
       <c r="A151" s="19" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>602</v>
+        <v>1775</v>
       </c>
       <c r="D151" s="19">
         <v>1979</v>
       </c>
       <c r="E151" s="19">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F151" s="19"/>
+      <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" s="1" customFormat="1" ht="56" spans="1:8">
+    <row r="152" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A152" s="19" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>1738</v>
+        <v>1778</v>
       </c>
       <c r="D152" s="19">
-        <v>1979</v>
+        <v>2009</v>
       </c>
       <c r="E152" s="19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F152" s="19"/>
-      <c r="H152" s="3"/>
-    </row>
-    <row r="153" customFormat="1" ht="112" spans="1:8">
-      <c r="A153" s="19" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D153" s="19">
-        <v>1979</v>
-      </c>
-      <c r="E153" s="19">
-        <v>27</v>
-      </c>
-      <c r="F153" s="19"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-    </row>
-    <row r="154" s="1" customFormat="1" ht="56" spans="1:6">
-      <c r="A154" s="19" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D154" s="19">
-        <v>2009</v>
-      </c>
-      <c r="E154" s="19">
-        <v>33</v>
-      </c>
-      <c r="F154" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
@@ -20010,97 +19938,97 @@
   <conditionalFormatting sqref="A10:C10">
     <cfRule type="duplicateValues" dxfId="0" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20">
+  <conditionalFormatting sqref="A18:C18">
     <cfRule type="duplicateValues" dxfId="0" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23">
+  <conditionalFormatting sqref="A21:C21">
     <cfRule type="duplicateValues" dxfId="0" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:C27">
+  <conditionalFormatting sqref="A25:C25">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:C31">
+  <conditionalFormatting sqref="A29:C29">
     <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34">
+  <conditionalFormatting sqref="A32:C32">
     <cfRule type="duplicateValues" dxfId="0" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:C42">
+  <conditionalFormatting sqref="A40:C40">
     <cfRule type="duplicateValues" dxfId="0" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47:C47">
+  <conditionalFormatting sqref="A45:C45">
     <cfRule type="duplicateValues" dxfId="0" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:C68">
+  <conditionalFormatting sqref="A66:C66">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:C69">
+  <conditionalFormatting sqref="A67:C67">
     <cfRule type="duplicateValues" dxfId="0" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:C70">
+  <conditionalFormatting sqref="A68:C68">
     <cfRule type="duplicateValues" dxfId="0" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:C73">
+  <conditionalFormatting sqref="A71:C71">
     <cfRule type="duplicateValues" dxfId="0" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86:C86">
+  <conditionalFormatting sqref="A84:C84">
     <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:C92">
+  <conditionalFormatting sqref="A90:C90">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94:C94">
+  <conditionalFormatting sqref="A92:C92">
     <cfRule type="duplicateValues" dxfId="0" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103:C103">
+  <conditionalFormatting sqref="A101:C101">
     <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112:C112">
+  <conditionalFormatting sqref="A110:C110">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114:C114">
+  <conditionalFormatting sqref="A112:C112">
     <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A116:C116">
+  <conditionalFormatting sqref="A114:C114">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A120:C120">
+  <conditionalFormatting sqref="A118:C118">
     <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121:C121">
+  <conditionalFormatting sqref="A119:C119">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:C122">
+  <conditionalFormatting sqref="A120:C120">
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A124:C124">
+  <conditionalFormatting sqref="A122:C122">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:C127">
+  <conditionalFormatting sqref="A125:C125">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131:C131">
+  <conditionalFormatting sqref="A129:C129">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A133:C133">
+  <conditionalFormatting sqref="A131:C131">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A135:C135">
+  <conditionalFormatting sqref="A133:C133">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A138:C138">
+  <conditionalFormatting sqref="A136:C136">
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A140:C140">
+  <conditionalFormatting sqref="A138:C138">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142:C142">
+  <conditionalFormatting sqref="A140:C140">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:C147">
+  <conditionalFormatting sqref="A145:C145">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A154:C154">
+  <conditionalFormatting sqref="A152:C152">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C9">
@@ -20112,46 +20040,43 @@
   <conditionalFormatting sqref="A15:C16">
     <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:C19">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C26">
+  <conditionalFormatting sqref="A23:C24">
     <cfRule type="duplicateValues" dxfId="0" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:C55">
+  <conditionalFormatting sqref="A52:C53">
     <cfRule type="duplicateValues" dxfId="0" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:C58">
+  <conditionalFormatting sqref="A55:C56">
     <cfRule type="duplicateValues" dxfId="0" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:C60 A63:C63">
+  <conditionalFormatting sqref="A58:C58 A61:C61">
     <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:C77">
+  <conditionalFormatting sqref="A74:C75">
     <cfRule type="duplicateValues" dxfId="0" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:C81 A78:C78">
+  <conditionalFormatting sqref="A79:C79 A76:C76">
     <cfRule type="duplicateValues" dxfId="0" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84:C85">
+  <conditionalFormatting sqref="A82:C83">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:C91">
+  <conditionalFormatting sqref="A85:C89">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:C102 A99:C99">
+  <conditionalFormatting sqref="A99:C100 A97:C97">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108:C109 A104:C105">
+  <conditionalFormatting sqref="A106:C107 A102:C103">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110:C111">
+  <conditionalFormatting sqref="A108:C109">
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A148:C150">
+  <conditionalFormatting sqref="A146:C148">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:C152">
+  <conditionalFormatting sqref="A149:C150">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -20172,23 +20097,21 @@
     <hyperlink ref="A16" r:id="rId16" display="诊断性抗结核治疗在鉴别儿童克罗恩病与肠结核时评估工具和时点的诊断准确性研究"/>
     <hyperlink ref="A15" r:id="rId17" display="克罗恩病48例临床特点分析"/>
     <hyperlink ref="A17" r:id="rId18" display="克罗恩病合并腹腔脓肿临床路径应用分析"/>
-    <hyperlink ref="A19" r:id="rId19" display=" 克罗恩病综合治疗的疗效观察 "/>
-    <hyperlink ref="C18" r:id="rId20" display="刘玉霞 "/>
-    <hyperlink ref="C20" r:id="rId21" display="刘青志 "/>
-    <hyperlink ref="A23" r:id="rId22" display="炎症性肠病80例分型与近期疗效分析"/>
-    <hyperlink ref="A22" r:id="rId23" display="炎症性肠病的诊断及难治性炎症性肠病的药物治疗效果观察"/>
-    <hyperlink ref="A21" r:id="rId24" display="海南炎症性肠病单中心临床资料分析"/>
-    <hyperlink ref="A24" r:id="rId25" display="30例克罗恩病药物治疗分析"/>
-    <hyperlink ref="A26" r:id="rId26" display="克罗恩病30例内科临床治疗"/>
-    <hyperlink ref="A25" r:id="rId27" display="浅析克罗恩病的内科治疗"/>
-    <hyperlink ref="C28" r:id="rId28" display="Medicine (Baltimore)" tooltip="Medicine."/>
-    <hyperlink ref="A48" r:id="rId29" display="胃十二指肠克罗恩病的治疗" tooltip="http://epub.cnki.net/kns/detail/detail.aspx?recid=&amp;FileName=CWCN201205002&amp;DbName=CJFD2012&amp;DbCode=CJFD&amp;id=&amp;file=CWCN201205002"/>
-    <hyperlink ref="E48" r:id="rId30" display="410" tooltip="http://epub.cnki.net/kns/request/javascript:void(0)"/>
-    <hyperlink ref="A104" r:id="rId31" display="85例中国克罗恩病患者与68例美国克罗恩病患者的临床特征及治疗比较" tooltip="http://epub.cnki.net/kns/detail/detail.aspx?recid=&amp;FileName=JFJY200609008&amp;DbName=cjfd2006&amp;DbCode=CJFD&amp;id=&amp;file=JFJY200609008"/>
-    <hyperlink ref="A125" r:id="rId32" display="克隆病90例临床特点" tooltip="http://epub.cnki.net/kns/detail/detail.aspx?recid=&amp;filename=XXHB199908050&amp;dbname=cjfd1999&amp;dbcode=CJFD&amp;id=&amp;file=XXHB199908050"/>
-    <hyperlink ref="A134" r:id="rId33" display="克隆病13例临床分析" tooltip="http://epub.cnki.net/kns/detail/detail.aspx?recid=&amp;FileName=NJYK199104019&amp;DbName=CJFD1991&amp;DbCode=CJFD&amp;id=&amp;file=NJYK199104019"/>
-    <hyperlink ref="E134" r:id="rId30" display="13" tooltip="http://epub.cnki.net/kns/request/javascript:void(0)"/>
-    <hyperlink ref="A89" r:id="rId34" display="克罗恩氏病96例分析" tooltip="http://epub.cnki.net/kns/detail/detail.aspx?recid=&amp;filename=LCXH200804017&amp;dbname=CJFD2008&amp;dbcode=CJFD&amp;id=&amp;file=LCXH200804017"/>
+    <hyperlink ref="C18" r:id="rId19" display="刘青志 "/>
+    <hyperlink ref="A21" r:id="rId20" display="炎症性肠病80例分型与近期疗效分析"/>
+    <hyperlink ref="A20" r:id="rId21" display="炎症性肠病的诊断及难治性炎症性肠病的药物治疗效果观察"/>
+    <hyperlink ref="A19" r:id="rId22" display="海南炎症性肠病单中心临床资料分析"/>
+    <hyperlink ref="A22" r:id="rId23" display="30例克罗恩病药物治疗分析"/>
+    <hyperlink ref="A24" r:id="rId24" display="克罗恩病30例内科临床治疗"/>
+    <hyperlink ref="A23" r:id="rId25" display="浅析克罗恩病的内科治疗"/>
+    <hyperlink ref="C26" r:id="rId26" display="Medicine (Baltimore)" tooltip="Medicine."/>
+    <hyperlink ref="A46" r:id="rId27" display="胃十二指肠克罗恩病的治疗" tooltip="http://epub.cnki.net/kns/detail/detail.aspx?recid=&amp;FileName=CWCN201205002&amp;DbName=CJFD2012&amp;DbCode=CJFD&amp;id=&amp;file=CWCN201205002"/>
+    <hyperlink ref="E46" r:id="rId28" display="410" tooltip="http://epub.cnki.net/kns/request/javascript:void(0)"/>
+    <hyperlink ref="A102" r:id="rId29" display="85例中国克罗恩病患者与68例美国克罗恩病患者的临床特征及治疗比较" tooltip="http://epub.cnki.net/kns/detail/detail.aspx?recid=&amp;FileName=JFJY200609008&amp;DbName=cjfd2006&amp;DbCode=CJFD&amp;id=&amp;file=JFJY200609008"/>
+    <hyperlink ref="A123" r:id="rId30" display="克隆病90例临床特点" tooltip="http://epub.cnki.net/kns/detail/detail.aspx?recid=&amp;filename=XXHB199908050&amp;dbname=cjfd1999&amp;dbcode=CJFD&amp;id=&amp;file=XXHB199908050"/>
+    <hyperlink ref="A132" r:id="rId31" display="克隆病13例临床分析" tooltip="http://epub.cnki.net/kns/detail/detail.aspx?recid=&amp;FileName=NJYK199104019&amp;DbName=CJFD1991&amp;DbCode=CJFD&amp;id=&amp;file=NJYK199104019"/>
+    <hyperlink ref="E132" r:id="rId28" display="13" tooltip="http://epub.cnki.net/kns/request/javascript:void(0)"/>
+    <hyperlink ref="A87" r:id="rId32" display="克罗恩氏病96例分析" tooltip="http://epub.cnki.net/kns/detail/detail.aspx?recid=&amp;filename=LCXH200804017&amp;dbname=CJFD2008&amp;dbcode=CJFD&amp;id=&amp;file=LCXH200804017"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -20201,7 +20124,7 @@
   <sheetPr/>
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+    <sheetView topLeftCell="A188" workbookViewId="0">
       <selection activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
@@ -20209,57 +20132,57 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="78" spans="1:7">
       <c r="A1" s="12" t="s">
-        <v>1788</v>
+        <v>1779</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1790</v>
+        <v>1781</v>
       </c>
       <c r="D1" s="3">
         <v>2016</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1792</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="2" ht="52.75" spans="1:8">
       <c r="A2" s="10" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1795</v>
+        <v>1786</v>
       </c>
       <c r="D2" s="3">
         <v>2016</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1797</v>
+        <v>1788</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" ht="104.75" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1799</v>
+        <v>1790</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1308</v>
@@ -20274,19 +20197,19 @@
         <v>93</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="65.75" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>1801</v>
+        <v>1792</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1803</v>
+        <v>1794</v>
       </c>
       <c r="D4" s="3">
         <v>2016</v>
@@ -20298,18 +20221,18 @@
         <v>93</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="78.75" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>1805</v>
+        <v>1796</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1807</v>
+        <v>1798</v>
       </c>
       <c r="D5" s="3">
         <v>2016</v>
@@ -20325,36 +20248,36 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="52.75" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>1808</v>
+        <v>1799</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1809</v>
+        <v>1800</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1810</v>
+        <v>1801</v>
       </c>
       <c r="D6" s="3">
         <v>2016</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1812</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="65.75" spans="1:7">
       <c r="A7" s="12" t="s">
-        <v>1813</v>
+        <v>1804</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1814</v>
+        <v>1805</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1815</v>
+        <v>1806</v>
       </c>
       <c r="D7" s="3">
         <v>2015</v>
@@ -20366,70 +20289,70 @@
         <v>402</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="52.75" spans="1:7">
       <c r="A8" s="15" t="s">
-        <v>1817</v>
+        <v>1808</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>1818</v>
+        <v>1809</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="D8" s="17">
         <v>2015</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>1820</v>
+        <v>1811</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>1396</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>1821</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="91.75" spans="1:7">
       <c r="A9" s="8" t="s">
-        <v>1822</v>
+        <v>1813</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1823</v>
+        <v>1814</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1824</v>
+        <v>1815</v>
       </c>
       <c r="D9" s="3">
         <v>2015</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1825</v>
+        <v>1816</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1826</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="39.75" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>1827</v>
+        <v>1818</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1828</v>
+        <v>1819</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1829</v>
+        <v>1820</v>
       </c>
       <c r="D10" s="3">
         <v>2015</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1830</v>
+        <v>1821</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>93</v>
@@ -20439,13 +20362,13 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="69.5" spans="1:9">
       <c r="A11" s="12" t="s">
-        <v>1831</v>
+        <v>1822</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1149</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1832</v>
+        <v>1823</v>
       </c>
       <c r="D11" s="3">
         <v>2015</v>
@@ -20454,7 +20377,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1833</v>
+        <v>1824</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>1119</v>
@@ -20463,10 +20386,10 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="98" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>1834</v>
+        <v>1825</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>1835</v>
+        <v>1826</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>247</v>
@@ -20481,13 +20404,13 @@
     </row>
     <row r="13" customFormat="1" ht="126" spans="1:8">
       <c r="A13" s="19" t="s">
-        <v>1836</v>
+        <v>1827</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1837</v>
+        <v>1828</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="D13" s="19">
         <v>2014</v>
@@ -20501,10 +20424,10 @@
     </row>
     <row r="14" customFormat="1" ht="112" spans="1:8">
       <c r="A14" s="19" t="s">
-        <v>1839</v>
+        <v>1830</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1840</v>
+        <v>1831</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>307</v>
@@ -20521,10 +20444,10 @@
     </row>
     <row r="15" customFormat="1" ht="70" spans="1:8">
       <c r="A15" s="19" t="s">
-        <v>1841</v>
+        <v>1832</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1842</v>
+        <v>1833</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>205</v>
@@ -20541,10 +20464,10 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="84" spans="1:9">
       <c r="A16" s="19" t="s">
-        <v>1843</v>
+        <v>1834</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1844</v>
+        <v>1835</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>700</v>
@@ -20560,13 +20483,13 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>1845</v>
+        <v>1836</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1846</v>
+        <v>1837</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>1847</v>
+        <v>1838</v>
       </c>
       <c r="D17" s="19">
         <v>2014</v>
@@ -20578,13 +20501,13 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>1848</v>
+        <v>1839</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1849</v>
+        <v>1840</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>1850</v>
+        <v>1841</v>
       </c>
       <c r="D18" s="19">
         <v>2013</v>
@@ -20596,13 +20519,13 @@
     </row>
     <row r="19" s="2" customFormat="1" ht="70" spans="1:9">
       <c r="A19" s="19" t="s">
-        <v>1851</v>
+        <v>1842</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1852</v>
+        <v>1843</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="D19" s="19">
         <v>2013</v>
@@ -20617,13 +20540,13 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="98" spans="1:6">
       <c r="A20" s="19" t="s">
-        <v>1853</v>
+        <v>1844</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1854</v>
+        <v>1845</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>1855</v>
+        <v>1846</v>
       </c>
       <c r="D20" s="19">
         <v>2013</v>
@@ -20635,13 +20558,13 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="70" spans="1:9">
       <c r="A21" s="19" t="s">
-        <v>1856</v>
+        <v>1847</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>1857</v>
+        <v>1848</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1858</v>
+        <v>1849</v>
       </c>
       <c r="D21" s="19">
         <v>2013</v>
@@ -20654,10 +20577,10 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="84" spans="1:6">
       <c r="A22" s="19" t="s">
-        <v>1859</v>
+        <v>1850</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>1069</v>
@@ -20672,10 +20595,10 @@
     </row>
     <row r="23" customFormat="1" ht="70" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>1861</v>
+        <v>1852</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>229</v>
@@ -20692,13 +20615,13 @@
     </row>
     <row r="24" customFormat="1" ht="168" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1864</v>
+        <v>1855</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1865</v>
+        <v>1856</v>
       </c>
       <c r="D24" s="19">
         <v>2013</v>
@@ -20712,10 +20635,10 @@
     </row>
     <row r="25" customFormat="1" ht="70" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>1866</v>
+        <v>1857</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>269</v>
@@ -20732,13 +20655,13 @@
     </row>
     <row r="26" customFormat="1" ht="98" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>1868</v>
+        <v>1859</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1869</v>
+        <v>1860</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="D26" s="19">
         <v>2012</v>
@@ -20752,10 +20675,10 @@
     </row>
     <row r="27" customFormat="1" ht="56" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>1870</v>
+        <v>1861</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1871</v>
+        <v>1862</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>508</v>
@@ -20772,10 +20695,10 @@
     </row>
     <row r="28" customFormat="1" ht="42" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>1872</v>
+        <v>1863</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1873</v>
+        <v>1864</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>511</v>
@@ -20792,13 +20715,13 @@
     </row>
     <row r="29" customFormat="1" ht="98" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>1874</v>
+        <v>1865</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="D29" s="19">
         <v>2012</v>
@@ -20812,13 +20735,13 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A30" s="19" t="s">
-        <v>1877</v>
+        <v>1868</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1878</v>
+        <v>1869</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="D30" s="19">
         <v>2012</v>
@@ -20830,10 +20753,10 @@
     </row>
     <row r="31" customFormat="1" ht="98" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>1879</v>
+        <v>1870</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>563</v>
@@ -20850,13 +20773,13 @@
     </row>
     <row r="32" customFormat="1" ht="42" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>1881</v>
+        <v>1872</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1882</v>
+        <v>1873</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>1883</v>
+        <v>1874</v>
       </c>
       <c r="D32" s="19">
         <v>2012</v>
@@ -20870,10 +20793,10 @@
     </row>
     <row r="33" customFormat="1" ht="56" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>1884</v>
+        <v>1875</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1885</v>
+        <v>1876</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>583</v>
@@ -20890,13 +20813,13 @@
     </row>
     <row r="34" customFormat="1" ht="56" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>1886</v>
+        <v>1877</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
       <c r="D34" s="19">
         <v>2012</v>
@@ -20910,10 +20833,10 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A35" s="19" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1889</v>
+        <v>1880</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>205</v>
@@ -20928,10 +20851,10 @@
     </row>
     <row r="36" customFormat="1" ht="112" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>1890</v>
+        <v>1881</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>1891</v>
+        <v>1882</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>644</v>
@@ -20948,10 +20871,10 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A37" s="19" t="s">
-        <v>1892</v>
+        <v>1883</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>1893</v>
+        <v>1884</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>202</v>
@@ -20966,13 +20889,13 @@
     </row>
     <row r="38" customFormat="1" ht="98" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>1895</v>
+        <v>1886</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>1896</v>
+        <v>1887</v>
       </c>
       <c r="D38" s="19">
         <v>2011</v>
@@ -20986,13 +20909,13 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A39" s="19" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>1898</v>
+        <v>1889</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>1899</v>
+        <v>1890</v>
       </c>
       <c r="D39" s="19">
         <v>2011</v>
@@ -21004,13 +20927,13 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="84" spans="1:6">
       <c r="A40" s="19" t="s">
-        <v>1900</v>
+        <v>1891</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1901</v>
+        <v>1892</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>1902</v>
+        <v>1893</v>
       </c>
       <c r="D40" s="19">
         <v>2011</v>
@@ -21022,10 +20945,10 @@
     </row>
     <row r="41" customFormat="1" ht="84" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>1903</v>
+        <v>1894</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>499</v>
@@ -21042,13 +20965,13 @@
     </row>
     <row r="42" customFormat="1" ht="98" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>1905</v>
+        <v>1896</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1906</v>
+        <v>1897</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>1907</v>
+        <v>1898</v>
       </c>
       <c r="D42" s="19">
         <v>2010</v>
@@ -21057,20 +20980,20 @@
         <v>1</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>1908</v>
+        <v>1899</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" customFormat="1" ht="56" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>1909</v>
+        <v>1900</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1910</v>
+        <v>1901</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>1911</v>
+        <v>1902</v>
       </c>
       <c r="D43" s="19">
         <v>2010</v>
@@ -21084,10 +21007,10 @@
     </row>
     <row r="44" customFormat="1" ht="84" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1913</v>
+        <v>1904</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>205</v>
@@ -21104,10 +21027,10 @@
     </row>
     <row r="45" customFormat="1" ht="84" spans="1:9">
       <c r="A45" s="19" t="s">
-        <v>1914</v>
+        <v>1905</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1915</v>
+        <v>1906</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>490</v>
@@ -21125,10 +21048,10 @@
     </row>
     <row r="46" customFormat="1" ht="56" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>1916</v>
+        <v>1907</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1917</v>
+        <v>1908</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>700</v>
@@ -21145,10 +21068,10 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A47" s="19" t="s">
-        <v>1918</v>
+        <v>1909</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1919</v>
+        <v>1910</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>202</v>
@@ -21163,13 +21086,13 @@
     </row>
     <row r="48" customFormat="1" ht="84" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1921</v>
+        <v>1912</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>1922</v>
+        <v>1913</v>
       </c>
       <c r="D48" s="19">
         <v>2010</v>
@@ -21183,10 +21106,10 @@
     </row>
     <row r="49" customFormat="1" ht="70" spans="1:6">
       <c r="A49" s="19" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>628</v>
@@ -21201,13 +21124,13 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A50" s="19" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1926</v>
+        <v>1917</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="D50" s="19">
         <v>2008</v>
@@ -21219,13 +21142,13 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A51" s="19" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1928</v>
+        <v>1919</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="D51" s="19">
         <v>2008</v>
@@ -21237,13 +21160,13 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="98" spans="1:6">
       <c r="A52" s="19" t="s">
-        <v>1930</v>
+        <v>1921</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1931</v>
+        <v>1922</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>1932</v>
+        <v>1923</v>
       </c>
       <c r="D52" s="19">
         <v>2008</v>
@@ -21255,10 +21178,10 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="112" spans="1:6">
       <c r="A53" s="19" t="s">
-        <v>1933</v>
+        <v>1924</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1934</v>
+        <v>1925</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>307</v>
@@ -21273,10 +21196,10 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="140" spans="1:6">
       <c r="A54" s="19" t="s">
-        <v>1935</v>
+        <v>1926</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1936</v>
+        <v>1927</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>490</v>
@@ -21291,10 +21214,10 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="98" spans="1:6">
       <c r="A55" s="19" t="s">
-        <v>1937</v>
+        <v>1928</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1938</v>
+        <v>1929</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>247</v>
@@ -21309,10 +21232,10 @@
     </row>
     <row r="56" customFormat="1" ht="56" spans="1:8">
       <c r="A56" s="19" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1940</v>
+        <v>1931</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>588</v>
@@ -21329,10 +21252,10 @@
     </row>
     <row r="57" customFormat="1" ht="70" spans="1:8">
       <c r="A57" s="19" t="s">
-        <v>1941</v>
+        <v>1932</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>1942</v>
+        <v>1933</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>1288</v>
@@ -21349,13 +21272,13 @@
     </row>
     <row r="58" customFormat="1" ht="42" spans="1:8">
       <c r="A58" s="19" t="s">
-        <v>1943</v>
+        <v>1934</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1944</v>
+        <v>1935</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>1945</v>
+        <v>1936</v>
       </c>
       <c r="D58" s="19">
         <v>2008</v>
@@ -21369,13 +21292,13 @@
     </row>
     <row r="59" customFormat="1" ht="56" spans="1:8">
       <c r="A59" s="19" t="s">
-        <v>1946</v>
+        <v>1937</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>1947</v>
+        <v>1938</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>1948</v>
+        <v>1939</v>
       </c>
       <c r="D59" s="19">
         <v>2008</v>
@@ -21389,13 +21312,13 @@
     </row>
     <row r="60" customFormat="1" ht="70" spans="1:8">
       <c r="A60" s="19" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1950</v>
+        <v>1941</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
       <c r="D60" s="19">
         <v>2008</v>
@@ -21409,13 +21332,13 @@
     </row>
     <row r="61" customFormat="1" ht="84" spans="1:8">
       <c r="A61" s="19" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="D61" s="19">
         <v>2007</v>
@@ -21429,13 +21352,13 @@
     </row>
     <row r="62" customFormat="1" ht="56" spans="1:8">
       <c r="A62" s="19" t="s">
-        <v>1955</v>
+        <v>1946</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="D62" s="19">
         <v>2007</v>
@@ -21449,13 +21372,13 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A63" s="19" t="s">
-        <v>1957</v>
+        <v>1948</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>1958</v>
+        <v>1949</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="D63" s="19">
         <v>2007</v>
@@ -21467,10 +21390,10 @@
     </row>
     <row r="64" customFormat="1" ht="42" spans="1:8">
       <c r="A64" s="19" t="s">
-        <v>1959</v>
+        <v>1950</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1960</v>
+        <v>1951</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>317</v>
@@ -21487,10 +21410,10 @@
     </row>
     <row r="65" customFormat="1" ht="42" spans="1:8">
       <c r="A65" s="19" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>1288</v>
@@ -21507,13 +21430,13 @@
     </row>
     <row r="66" customFormat="1" ht="182" spans="1:8">
       <c r="A66" s="19" t="s">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>1963</v>
+        <v>1954</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>1964</v>
+        <v>1955</v>
       </c>
       <c r="D66" s="19">
         <v>2007</v>
@@ -21527,13 +21450,13 @@
     </row>
     <row r="67" customFormat="1" ht="70" spans="1:8">
       <c r="A67" s="19" t="s">
-        <v>1965</v>
+        <v>1956</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
       <c r="D67" s="19">
         <v>2007</v>
@@ -21547,13 +21470,13 @@
     </row>
     <row r="68" s="1" customFormat="1" ht="84" spans="1:6">
       <c r="A68" s="19" t="s">
-        <v>1968</v>
+        <v>1959</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>1969</v>
+        <v>1960</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="D68" s="19">
         <v>2007</v>
@@ -21565,10 +21488,10 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A69" s="19" t="s">
-        <v>1970</v>
+        <v>1961</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>1971</v>
+        <v>1962</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>205</v>
@@ -21583,10 +21506,10 @@
     </row>
     <row r="70" customFormat="1" ht="56" spans="1:8">
       <c r="A70" s="19" t="s">
-        <v>1972</v>
+        <v>1963</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>496</v>
@@ -21603,13 +21526,13 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="56" spans="1:6">
       <c r="A71" s="19" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
       <c r="D71" s="19">
         <v>2007</v>
@@ -21621,10 +21544,10 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A72" s="19" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>490</v>
@@ -21639,13 +21562,13 @@
     </row>
     <row r="73" s="1" customFormat="1" ht="70" spans="1:6">
       <c r="A73" s="19" t="s">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="D73" s="19">
         <v>2006</v>
@@ -21657,13 +21580,13 @@
     </row>
     <row r="74" customFormat="1" ht="42" spans="1:8">
       <c r="A74" s="19" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="D74" s="19">
         <v>2006</v>
@@ -21677,13 +21600,13 @@
     </row>
     <row r="75" s="1" customFormat="1" ht="42" spans="1:6">
       <c r="A75" s="19" t="s">
-        <v>1984</v>
+        <v>1975</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="D75" s="19">
         <v>2006</v>
@@ -21695,10 +21618,10 @@
     </row>
     <row r="76" customFormat="1" ht="70" spans="1:8">
       <c r="A76" s="19" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>202</v>
@@ -21715,13 +21638,13 @@
     </row>
     <row r="77" customFormat="1" ht="112" spans="1:8">
       <c r="A77" s="19" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="D77" s="19">
         <v>2005</v>
@@ -21735,13 +21658,13 @@
     </row>
     <row r="78" customFormat="1" ht="42" spans="1:8">
       <c r="A78" s="19" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="D78" s="19">
         <v>2005</v>
@@ -21752,18 +21675,18 @@
       <c r="F78" s="19"/>
       <c r="G78" s="1"/>
       <c r="H78" s="3" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="84" spans="1:6">
       <c r="A79" s="19" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="D79" s="19">
         <v>2005</v>
@@ -21775,10 +21698,10 @@
     </row>
     <row r="80" customFormat="1" ht="112" spans="1:8">
       <c r="A80" s="19" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>178</v>
@@ -21795,13 +21718,13 @@
     </row>
     <row r="81" customFormat="1" ht="84" spans="1:8">
       <c r="A81" s="19" t="s">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="D81" s="19">
         <v>2005</v>
@@ -21815,13 +21738,13 @@
     </row>
     <row r="82" s="1" customFormat="1" ht="84" spans="1:8">
       <c r="A82" s="19" t="s">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="D82" s="19">
         <v>2004</v>
@@ -21834,13 +21757,13 @@
     </row>
     <row r="83" customFormat="1" ht="56" spans="1:8">
       <c r="A83" s="19" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="D83" s="19">
         <v>2004</v>
@@ -21854,13 +21777,13 @@
     </row>
     <row r="84" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A84" s="19" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="D84" s="19">
         <v>2004</v>
@@ -21873,10 +21796,10 @@
     </row>
     <row r="85" customFormat="1" ht="56" spans="1:8">
       <c r="A85" s="19" t="s">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>45</v>
@@ -21893,13 +21816,13 @@
     </row>
     <row r="86" customFormat="1" ht="42" spans="1:8">
       <c r="A86" s="19" t="s">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="D86" s="19">
         <v>2004</v>
@@ -21913,13 +21836,13 @@
     </row>
     <row r="87" customFormat="1" ht="56" spans="1:8">
       <c r="A87" s="19" t="s">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="D87" s="19">
         <v>2004</v>
@@ -21933,10 +21856,10 @@
     </row>
     <row r="88" s="1" customFormat="1" ht="84" spans="1:8">
       <c r="A88" s="19" t="s">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>45</v>
@@ -21952,13 +21875,13 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A89" s="19" t="s">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="D89" s="19">
         <v>2004</v>
@@ -21971,10 +21894,10 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="98" spans="1:8">
       <c r="A90" s="19" t="s">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>45</v>
@@ -21990,10 +21913,10 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A91" s="19" t="s">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="C91" s="19" t="s">
         <v>608</v>
@@ -22009,10 +21932,10 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="84" spans="1:8">
       <c r="A92" s="19" t="s">
-        <v>2026</v>
+        <v>2017</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>2027</v>
+        <v>2018</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>205</v>
@@ -22028,11 +21951,11 @@
     </row>
     <row r="93" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A93" s="19" t="s">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="19" t="s">
-        <v>2029</v>
+        <v>2020</v>
       </c>
       <c r="D93" s="19">
         <v>2003</v>
@@ -22045,10 +21968,10 @@
     </row>
     <row r="94" customFormat="1" ht="28" spans="1:8">
       <c r="A94" s="19" t="s">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>2031</v>
+        <v>2022</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>628</v>
@@ -22065,13 +21988,13 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A95" s="19" t="s">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>2033</v>
+        <v>2024</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>2034</v>
+        <v>2025</v>
       </c>
       <c r="D95" s="19">
         <v>2003</v>
@@ -22084,13 +22007,13 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A96" s="19" t="s">
-        <v>2035</v>
+        <v>2026</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>2036</v>
+        <v>2027</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>2037</v>
+        <v>2028</v>
       </c>
       <c r="D96" s="19">
         <v>2002</v>
@@ -22103,13 +22026,13 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A97" s="19" t="s">
-        <v>2038</v>
+        <v>2029</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>2039</v>
+        <v>2030</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>2040</v>
+        <v>2031</v>
       </c>
       <c r="D97" s="19">
         <v>2002</v>
@@ -22122,10 +22045,10 @@
     </row>
     <row r="98" customFormat="1" ht="56" spans="1:8">
       <c r="A98" s="19" t="s">
-        <v>2041</v>
+        <v>2032</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>2042</v>
+        <v>2033</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>317</v>
@@ -22142,13 +22065,13 @@
     </row>
     <row r="99" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A99" s="19" t="s">
-        <v>2043</v>
+        <v>2034</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>2044</v>
+        <v>2035</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="D99" s="19">
         <v>2002</v>
@@ -22161,10 +22084,10 @@
     </row>
     <row r="100" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A100" s="19" t="s">
-        <v>2045</v>
+        <v>2036</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>2046</v>
+        <v>2037</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>45</v>
@@ -22180,13 +22103,13 @@
     </row>
     <row r="101" customFormat="1" ht="70" spans="1:8">
       <c r="A101" s="19" t="s">
-        <v>2047</v>
+        <v>2038</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>2048</v>
+        <v>2039</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>2049</v>
+        <v>2040</v>
       </c>
       <c r="D101" s="19">
         <v>2000</v>
@@ -22200,13 +22123,13 @@
     </row>
     <row r="102" customFormat="1" ht="70" spans="1:8">
       <c r="A102" s="19" t="s">
-        <v>2050</v>
+        <v>2041</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>2051</v>
+        <v>2042</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>2052</v>
+        <v>2043</v>
       </c>
       <c r="D102" s="19">
         <v>2000</v>
@@ -22220,13 +22143,13 @@
     </row>
     <row r="103" customFormat="1" ht="70" spans="1:8">
       <c r="A103" s="19" t="s">
-        <v>2053</v>
+        <v>2044</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>2054</v>
+        <v>2045</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>2055</v>
+        <v>2046</v>
       </c>
       <c r="D103" s="19">
         <v>2000</v>
@@ -22240,10 +22163,10 @@
     </row>
     <row r="104" customFormat="1" ht="42" spans="1:8">
       <c r="A104" s="19" t="s">
-        <v>2056</v>
+        <v>2047</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>2057</v>
+        <v>2048</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>519</v>
@@ -22260,13 +22183,13 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A105" s="19" t="s">
-        <v>2058</v>
+        <v>2049</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>2059</v>
+        <v>2050</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
       <c r="D105" s="19">
         <v>2000</v>
@@ -22279,10 +22202,10 @@
     </row>
     <row r="106" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A106" s="19" t="s">
-        <v>2060</v>
+        <v>2051</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>2061</v>
+        <v>2052</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>105</v>
@@ -22298,13 +22221,13 @@
     </row>
     <row r="107" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A107" s="19" t="s">
-        <v>2062</v>
+        <v>2053</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>2063</v>
+        <v>2054</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2064</v>
+        <v>2055</v>
       </c>
       <c r="D107" s="19">
         <v>1999</v>
@@ -22317,13 +22240,13 @@
     </row>
     <row r="108" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A108" s="19" t="s">
-        <v>2065</v>
+        <v>2056</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>2066</v>
+        <v>2057</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>2067</v>
+        <v>2058</v>
       </c>
       <c r="D108" s="19">
         <v>1999</v>
@@ -22336,13 +22259,13 @@
     </row>
     <row r="109" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A109" s="19" t="s">
-        <v>2068</v>
+        <v>2059</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>2069</v>
+        <v>2060</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>2070</v>
+        <v>2061</v>
       </c>
       <c r="D109" s="19">
         <v>1999</v>
@@ -22355,13 +22278,13 @@
     </row>
     <row r="110" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A110" s="19" t="s">
-        <v>2071</v>
+        <v>2062</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>2072</v>
+        <v>2063</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>2073</v>
+        <v>2064</v>
       </c>
       <c r="D110" s="19">
         <v>1998</v>
@@ -22374,10 +22297,10 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A111" s="19" t="s">
-        <v>2074</v>
+        <v>2065</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>2075</v>
+        <v>2066</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>575</v>
@@ -22393,10 +22316,10 @@
     </row>
     <row r="112" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A112" s="19" t="s">
-        <v>2076</v>
+        <v>2067</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>2077</v>
+        <v>2068</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>974</v>
@@ -22412,13 +22335,13 @@
     </row>
     <row r="113" customFormat="1" ht="56" spans="1:8">
       <c r="A113" s="19" t="s">
-        <v>2078</v>
+        <v>2069</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>2079</v>
+        <v>2070</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>2080</v>
+        <v>2071</v>
       </c>
       <c r="D113" s="19">
         <v>1998</v>
@@ -22432,13 +22355,13 @@
     </row>
     <row r="114" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A114" s="19" t="s">
-        <v>2081</v>
+        <v>2072</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>2082</v>
+        <v>2073</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2083</v>
+        <v>2074</v>
       </c>
       <c r="D114" s="19">
         <v>1998</v>
@@ -22451,10 +22374,10 @@
     </row>
     <row r="115" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A115" s="19" t="s">
-        <v>2084</v>
+        <v>2075</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>2085</v>
+        <v>2076</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>560</v>
@@ -22470,10 +22393,10 @@
     </row>
     <row r="116" customFormat="1" ht="70" spans="1:8">
       <c r="A116" s="19" t="s">
-        <v>2086</v>
+        <v>2077</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>2087</v>
+        <v>2078</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>307</v>
@@ -22490,10 +22413,10 @@
     </row>
     <row r="117" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A117" s="19" t="s">
-        <v>2088</v>
+        <v>2079</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>2089</v>
+        <v>2080</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>343</v>
@@ -22509,13 +22432,13 @@
     </row>
     <row r="118" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A118" s="19" t="s">
-        <v>2090</v>
+        <v>2081</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>2091</v>
+        <v>2082</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2092</v>
+        <v>2083</v>
       </c>
       <c r="D118" s="19">
         <v>1997</v>
@@ -22528,10 +22451,10 @@
     </row>
     <row r="119" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A119" s="19" t="s">
-        <v>2093</v>
+        <v>2084</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>2094</v>
+        <v>2085</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>560</v>
@@ -22547,13 +22470,13 @@
     </row>
     <row r="120" customFormat="1" ht="42" spans="1:8">
       <c r="A120" s="19" t="s">
-        <v>2095</v>
+        <v>2086</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>2096</v>
+        <v>2087</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2097</v>
+        <v>2088</v>
       </c>
       <c r="D120" s="19">
         <v>1996</v>
@@ -22567,13 +22490,13 @@
     </row>
     <row r="121" customFormat="1" ht="42" spans="1:8">
       <c r="A121" s="19" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>2099</v>
+        <v>2090</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="D121" s="19">
         <v>1996</v>
@@ -22587,13 +22510,13 @@
     </row>
     <row r="122" customFormat="1" ht="42" spans="1:8">
       <c r="A122" s="19" t="s">
-        <v>2100</v>
+        <v>2091</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>2101</v>
+        <v>2092</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>2102</v>
+        <v>2093</v>
       </c>
       <c r="D122" s="19">
         <v>1996</v>
@@ -22607,10 +22530,10 @@
     </row>
     <row r="123" customFormat="1" ht="56" spans="1:8">
       <c r="A123" s="19" t="s">
-        <v>2103</v>
+        <v>2094</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>2104</v>
+        <v>2095</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>700</v>
@@ -22627,13 +22550,13 @@
     </row>
     <row r="124" customFormat="1" ht="84" spans="1:8">
       <c r="A124" s="19" t="s">
-        <v>2105</v>
+        <v>2096</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="D124" s="19">
         <v>1996</v>
@@ -22647,13 +22570,13 @@
     </row>
     <row r="125" customFormat="1" ht="56" spans="1:8">
       <c r="A125" s="19" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>2109</v>
+        <v>2100</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>2110</v>
+        <v>2101</v>
       </c>
       <c r="D125" s="19">
         <v>1995</v>
@@ -22667,13 +22590,13 @@
     </row>
     <row r="126" customFormat="1" ht="56" spans="1:8">
       <c r="A126" s="19" t="s">
-        <v>2111</v>
+        <v>2102</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>2112</v>
+        <v>2103</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>2113</v>
+        <v>2104</v>
       </c>
       <c r="D126" s="19">
         <v>1995</v>
@@ -22687,13 +22610,13 @@
     </row>
     <row r="127" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A127" s="19" t="s">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>2115</v>
+        <v>2106</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>2116</v>
+        <v>2107</v>
       </c>
       <c r="D127" s="19">
         <v>1994</v>
@@ -22706,13 +22629,13 @@
     </row>
     <row r="128" customFormat="1" ht="56" spans="1:8">
       <c r="A128" s="19" t="s">
-        <v>2117</v>
+        <v>2108</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>2118</v>
+        <v>2109</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="D128" s="19">
         <v>1994</v>
@@ -22726,13 +22649,13 @@
     </row>
     <row r="129" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A129" s="19" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>2120</v>
+        <v>2111</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>1850</v>
+        <v>1841</v>
       </c>
       <c r="D129" s="19">
         <v>1994</v>
@@ -22745,13 +22668,13 @@
     </row>
     <row r="130" customFormat="1" ht="56" spans="1:8">
       <c r="A130" s="19" t="s">
-        <v>2121</v>
+        <v>2112</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>2122</v>
+        <v>2113</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
       <c r="D130" s="19">
         <v>1994</v>
@@ -22765,13 +22688,13 @@
     </row>
     <row r="131" customFormat="1" ht="56" spans="1:8">
       <c r="A131" s="19" t="s">
-        <v>2123</v>
+        <v>2114</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>2124</v>
+        <v>2115</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>2125</v>
+        <v>2116</v>
       </c>
       <c r="D131" s="19">
         <v>1994</v>
@@ -22785,13 +22708,13 @@
     </row>
     <row r="132" customFormat="1" ht="56" spans="1:8">
       <c r="A132" s="19" t="s">
-        <v>2126</v>
+        <v>2117</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>2127</v>
+        <v>2118</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>2128</v>
+        <v>2119</v>
       </c>
       <c r="D132" s="19">
         <v>1993</v>
@@ -22805,13 +22728,13 @@
     </row>
     <row r="133" customFormat="1" ht="56" spans="1:8">
       <c r="A133" s="19" t="s">
-        <v>2129</v>
+        <v>2120</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>2131</v>
+        <v>2122</v>
       </c>
       <c r="D133" s="19">
         <v>1993</v>
@@ -22825,13 +22748,13 @@
     </row>
     <row r="134" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A134" s="19" t="s">
-        <v>2132</v>
+        <v>2123</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>2133</v>
+        <v>2124</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>1850</v>
+        <v>1841</v>
       </c>
       <c r="D134" s="19">
         <v>1993</v>
@@ -22844,10 +22767,10 @@
     </row>
     <row r="135" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A135" s="19" t="s">
-        <v>2134</v>
+        <v>2125</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>2135</v>
+        <v>2126</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>197</v>
@@ -22863,13 +22786,13 @@
     </row>
     <row r="136" customFormat="1" ht="56" spans="1:8">
       <c r="A136" s="19" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>2137</v>
+        <v>2128</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="D136" s="19">
         <v>1993</v>
@@ -22883,13 +22806,13 @@
     </row>
     <row r="137" customFormat="1" ht="42" spans="1:8">
       <c r="A137" s="19" t="s">
-        <v>2139</v>
+        <v>2130</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>2140</v>
+        <v>2131</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>2141</v>
+        <v>2132</v>
       </c>
       <c r="D137" s="19">
         <v>1992</v>
@@ -22903,13 +22826,13 @@
     </row>
     <row r="138" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A138" s="19" t="s">
-        <v>2142</v>
+        <v>2133</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>2143</v>
+        <v>2134</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>2144</v>
+        <v>2135</v>
       </c>
       <c r="D138" s="19">
         <v>1992</v>
@@ -22922,13 +22845,13 @@
     </row>
     <row r="139" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A139" s="19" t="s">
-        <v>2145</v>
+        <v>2136</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>2146</v>
+        <v>2137</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>2147</v>
+        <v>2138</v>
       </c>
       <c r="D139" s="19">
         <v>1992</v>
@@ -22941,13 +22864,13 @@
     </row>
     <row r="140" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A140" s="19" t="s">
-        <v>2148</v>
+        <v>2139</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>2149</v>
+        <v>2140</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>2150</v>
+        <v>2141</v>
       </c>
       <c r="D140" s="19">
         <v>1992</v>
@@ -22960,13 +22883,13 @@
     </row>
     <row r="141" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A141" s="19" t="s">
-        <v>2151</v>
+        <v>2142</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>2152</v>
+        <v>2143</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>2153</v>
+        <v>2144</v>
       </c>
       <c r="D141" s="19">
         <v>1991</v>
@@ -22979,13 +22902,13 @@
     </row>
     <row r="142" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A142" s="19" t="s">
-        <v>2154</v>
+        <v>2145</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>2155</v>
+        <v>2146</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="D142" s="19">
         <v>1991</v>
@@ -22998,13 +22921,13 @@
     </row>
     <row r="143" s="1" customFormat="1" ht="98" spans="1:8">
       <c r="A143" s="19" t="s">
-        <v>2156</v>
+        <v>2147</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>2157</v>
+        <v>2148</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>2158</v>
+        <v>2149</v>
       </c>
       <c r="D143" s="19">
         <v>1991</v>
@@ -23017,13 +22940,13 @@
     </row>
     <row r="144" customFormat="1" ht="70" spans="1:8">
       <c r="A144" s="19" t="s">
-        <v>2159</v>
+        <v>2150</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>2160</v>
+        <v>2151</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>2161</v>
+        <v>2152</v>
       </c>
       <c r="D144" s="19">
         <v>1991</v>
@@ -23037,13 +22960,13 @@
     </row>
     <row r="145" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A145" s="19" t="s">
-        <v>2162</v>
+        <v>2153</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>2163</v>
+        <v>2154</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>2164</v>
+        <v>2155</v>
       </c>
       <c r="D145" s="19">
         <v>1990</v>
@@ -23056,10 +22979,10 @@
     </row>
     <row r="146" customFormat="1" ht="70" spans="1:8">
       <c r="A146" s="19" t="s">
-        <v>2165</v>
+        <v>2156</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>2166</v>
+        <v>2157</v>
       </c>
       <c r="C146" s="19" t="s">
         <v>594</v>
@@ -23076,10 +22999,10 @@
     </row>
     <row r="147" customFormat="1" ht="84" spans="1:8">
       <c r="A147" s="19" t="s">
-        <v>2167</v>
+        <v>2158</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>2168</v>
+        <v>2159</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>611</v>
@@ -23096,10 +23019,10 @@
     </row>
     <row r="148" customFormat="1" ht="70" spans="1:8">
       <c r="A148" s="19" t="s">
-        <v>2169</v>
+        <v>2160</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>2170</v>
+        <v>2161</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>608</v>
@@ -23116,13 +23039,13 @@
     </row>
     <row r="149" customFormat="1" ht="42" spans="1:8">
       <c r="A149" s="19" t="s">
-        <v>2171</v>
+        <v>2162</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>2172</v>
+        <v>2163</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>2173</v>
+        <v>2164</v>
       </c>
       <c r="D149" s="19">
         <v>1989</v>
@@ -23136,10 +23059,10 @@
     </row>
     <row r="150" customFormat="1" ht="56" spans="1:8">
       <c r="A150" s="19" t="s">
-        <v>2174</v>
+        <v>2165</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>2175</v>
+        <v>2166</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>1118</v>
@@ -23156,10 +23079,10 @@
     </row>
     <row r="151" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A151" s="19" t="s">
-        <v>2176</v>
+        <v>2167</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>2177</v>
+        <v>2168</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>554</v>
@@ -23175,13 +23098,13 @@
     </row>
     <row r="152" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A152" s="19" t="s">
-        <v>2178</v>
+        <v>2169</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>2179</v>
+        <v>2170</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="D152" s="19">
         <v>1988</v>
@@ -23194,13 +23117,13 @@
     </row>
     <row r="153" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A153" s="19" t="s">
-        <v>2180</v>
+        <v>2171</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>2181</v>
+        <v>2172</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>2182</v>
+        <v>2173</v>
       </c>
       <c r="D153" s="19">
         <v>1988</v>
@@ -23213,13 +23136,13 @@
     </row>
     <row r="154" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A154" s="19" t="s">
-        <v>2183</v>
+        <v>2174</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>2184</v>
+        <v>2175</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>2185</v>
+        <v>2176</v>
       </c>
       <c r="D154" s="19">
         <v>1988</v>
@@ -23232,13 +23155,13 @@
     </row>
     <row r="155" customFormat="1" ht="56" spans="1:8">
       <c r="A155" s="19" t="s">
-        <v>2186</v>
+        <v>2177</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>2187</v>
+        <v>2178</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>2158</v>
+        <v>2149</v>
       </c>
       <c r="D155" s="19">
         <v>1987</v>
@@ -23252,13 +23175,13 @@
     </row>
     <row r="156" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A156" s="19" t="s">
-        <v>2188</v>
+        <v>2179</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>2189</v>
+        <v>2180</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>2190</v>
+        <v>2181</v>
       </c>
       <c r="D156" s="19">
         <v>1987</v>
@@ -23271,13 +23194,13 @@
     </row>
     <row r="157" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A157" s="19" t="s">
-        <v>2191</v>
+        <v>2182</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>2192</v>
+        <v>2183</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>2116</v>
+        <v>2107</v>
       </c>
       <c r="D157" s="19">
         <v>1987</v>
@@ -23290,10 +23213,10 @@
     </row>
     <row r="158" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A158" s="19" t="s">
-        <v>2193</v>
+        <v>2184</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>2194</v>
+        <v>2185</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>700</v>
@@ -23309,13 +23232,13 @@
     </row>
     <row r="159" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A159" s="19" t="s">
-        <v>2195</v>
+        <v>2186</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>2196</v>
+        <v>2187</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>2197</v>
+        <v>2188</v>
       </c>
       <c r="D159" s="19">
         <v>1987</v>
@@ -23328,10 +23251,10 @@
     </row>
     <row r="160" s="1" customFormat="1" ht="28" spans="1:8">
       <c r="A160" s="19" t="s">
-        <v>2198</v>
+        <v>2189</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>2199</v>
+        <v>2190</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>634</v>
@@ -23347,10 +23270,10 @@
     </row>
     <row r="161" customFormat="1" ht="28" spans="1:8">
       <c r="A161" s="19" t="s">
-        <v>2200</v>
+        <v>2191</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>2201</v>
+        <v>2192</v>
       </c>
       <c r="C161" s="19" t="s">
         <v>96</v>
@@ -23367,10 +23290,10 @@
     </row>
     <row r="162" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A162" s="19" t="s">
-        <v>2202</v>
+        <v>2193</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>2203</v>
+        <v>2194</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>740</v>
@@ -23386,13 +23309,13 @@
     </row>
     <row r="163" customFormat="1" ht="70" spans="1:8">
       <c r="A163" s="19" t="s">
-        <v>2204</v>
+        <v>2195</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>2205</v>
+        <v>2196</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>2206</v>
+        <v>2197</v>
       </c>
       <c r="D163" s="19">
         <v>1987</v>
@@ -23406,13 +23329,13 @@
     </row>
     <row r="164" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A164" s="19" t="s">
-        <v>2207</v>
+        <v>2198</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>2208</v>
+        <v>2199</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="D164" s="19">
         <v>1986</v>
@@ -23425,10 +23348,10 @@
     </row>
     <row r="165" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A165" s="19" t="s">
-        <v>2209</v>
+        <v>2200</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>2210</v>
+        <v>2201</v>
       </c>
       <c r="C165" s="19" t="s">
         <v>625</v>
@@ -23444,13 +23367,13 @@
     </row>
     <row r="166" customFormat="1" ht="42" spans="1:8">
       <c r="A166" s="19" t="s">
-        <v>2211</v>
+        <v>2202</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>2212</v>
+        <v>2203</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>2213</v>
+        <v>2204</v>
       </c>
       <c r="D166" s="19">
         <v>1986</v>
@@ -23464,10 +23387,10 @@
     </row>
     <row r="167" customFormat="1" ht="42" spans="1:8">
       <c r="A167" s="19" t="s">
-        <v>2211</v>
+        <v>2202</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>2214</v>
+        <v>2205</v>
       </c>
       <c r="C167" s="19" t="s">
         <v>602</v>
@@ -23484,13 +23407,13 @@
     </row>
     <row r="168" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A168" s="19" t="s">
-        <v>2215</v>
+        <v>2206</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>2216</v>
+        <v>2207</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="D168" s="19">
         <v>1986</v>
@@ -23503,10 +23426,10 @@
     </row>
     <row r="169" customFormat="1" ht="28" spans="1:8">
       <c r="A169" s="19" t="s">
-        <v>2217</v>
+        <v>2208</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>2218</v>
+        <v>2209</v>
       </c>
       <c r="C169" s="19" t="s">
         <v>1069</v>
@@ -23523,13 +23446,13 @@
     </row>
     <row r="170" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A170" s="19" t="s">
-        <v>2219</v>
+        <v>2210</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>2220</v>
+        <v>2211</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="D170" s="19">
         <v>1986</v>
@@ -23542,13 +23465,13 @@
     </row>
     <row r="171" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A171" s="19" t="s">
-        <v>2221</v>
+        <v>2212</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>2222</v>
+        <v>2213</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>2223</v>
+        <v>2214</v>
       </c>
       <c r="D171" s="19">
         <v>1985</v>
@@ -23561,13 +23484,13 @@
     </row>
     <row r="172" customFormat="1" ht="84" spans="1:8">
       <c r="A172" s="19" t="s">
-        <v>2224</v>
+        <v>2215</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>2225</v>
+        <v>2216</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>2226</v>
+        <v>2217</v>
       </c>
       <c r="D172" s="19">
         <v>1985</v>
@@ -23581,10 +23504,10 @@
     </row>
     <row r="173" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A173" s="19" t="s">
-        <v>2227</v>
+        <v>2218</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>2228</v>
+        <v>2219</v>
       </c>
       <c r="C173" s="19" t="s">
         <v>625</v>
@@ -23600,13 +23523,13 @@
     </row>
     <row r="174" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A174" s="19" t="s">
-        <v>2229</v>
+        <v>2220</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>2230</v>
+        <v>2221</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="D174" s="19">
         <v>1985</v>
@@ -23619,13 +23542,13 @@
     </row>
     <row r="175" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A175" s="19" t="s">
-        <v>2231</v>
+        <v>2222</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>2232</v>
+        <v>2223</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="D175" s="19">
         <v>1984</v>
@@ -23638,13 +23561,13 @@
     </row>
     <row r="176" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A176" s="19" t="s">
-        <v>2233</v>
+        <v>2224</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>2234</v>
+        <v>2225</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>2235</v>
+        <v>2226</v>
       </c>
       <c r="D176" s="19">
         <v>1984</v>
@@ -23657,13 +23580,13 @@
     </row>
     <row r="177" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A177" s="19" t="s">
-        <v>2236</v>
+        <v>2227</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>2237</v>
+        <v>2228</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="D177" s="19">
         <v>1983</v>
@@ -23676,13 +23599,13 @@
     </row>
     <row r="178" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A178" s="19" t="s">
-        <v>2238</v>
+        <v>2229</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>2239</v>
+        <v>2230</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>2240</v>
+        <v>2231</v>
       </c>
       <c r="D178" s="19">
         <v>1982</v>
@@ -23695,10 +23618,10 @@
     </row>
     <row r="179" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A179" s="19" t="s">
-        <v>2241</v>
+        <v>2232</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>2242</v>
+        <v>2233</v>
       </c>
       <c r="C179" s="19" t="s">
         <v>588</v>
@@ -23714,13 +23637,13 @@
     </row>
     <row r="180" s="1" customFormat="1" ht="42" spans="1:8">
       <c r="A180" s="19" t="s">
-        <v>2243</v>
+        <v>2234</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>2244</v>
+        <v>2235</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>2245</v>
+        <v>2236</v>
       </c>
       <c r="D180" s="19">
         <v>1982</v>
@@ -23733,13 +23656,13 @@
     </row>
     <row r="181" s="1" customFormat="1" ht="84" spans="1:8">
       <c r="A181" s="19" t="s">
-        <v>2246</v>
+        <v>2237</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>2247</v>
+        <v>2238</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="D181" s="19">
         <v>1982</v>
@@ -23752,10 +23675,10 @@
     </row>
     <row r="182" s="1" customFormat="1" ht="70" spans="1:8">
       <c r="A182" s="19" t="s">
-        <v>2248</v>
+        <v>2239</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>2249</v>
+        <v>2240</v>
       </c>
       <c r="C182" s="19" t="s">
         <v>1232</v>
@@ -23771,13 +23694,13 @@
     </row>
     <row r="183" customFormat="1" ht="70.75" spans="1:8">
       <c r="A183" s="19" t="s">
-        <v>2250</v>
+        <v>2241</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>2251</v>
+        <v>2242</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>2252</v>
+        <v>2243</v>
       </c>
       <c r="D183" s="19">
         <v>1980</v>
@@ -23791,19 +23714,19 @@
     </row>
     <row r="184" s="1" customFormat="1" ht="52.75" spans="1:7">
       <c r="A184" s="5" t="s">
-        <v>2253</v>
+        <v>2244</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>2254</v>
+        <v>2245</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>2255</v>
+        <v>2246</v>
       </c>
       <c r="D184" s="3">
         <v>2016</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>2256</v>
+        <v>2247</v>
       </c>
       <c r="F184" s="14" t="s">
         <v>128</v>
@@ -23814,19 +23737,19 @@
     </row>
     <row r="185" s="1" customFormat="1" ht="65.75" spans="1:7">
       <c r="A185" s="5" t="s">
-        <v>2257</v>
+        <v>2248</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>2258</v>
+        <v>2249</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>2255</v>
+        <v>2246</v>
       </c>
       <c r="D185" s="3">
         <v>2015</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>2259</v>
+        <v>2250</v>
       </c>
       <c r="F185" s="14" t="s">
         <v>792</v>
@@ -23837,10 +23760,10 @@
     </row>
     <row r="186" s="1" customFormat="1" ht="65.75" spans="1:7">
       <c r="A186" s="5" t="s">
-        <v>2260</v>
+        <v>2251</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>2261</v>
+        <v>2252</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>110</v>
@@ -23849,24 +23772,24 @@
         <v>2016</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>2262</v>
+        <v>2253</v>
       </c>
       <c r="F186" s="14" t="s">
         <v>1004</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>2263</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="187" customFormat="1" ht="84.75" spans="1:8">
       <c r="A187" s="19" t="s">
-        <v>2264</v>
+        <v>2255</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>2265</v>
+        <v>2256</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>2266</v>
+        <v>2257</v>
       </c>
       <c r="D187" s="19">
         <v>2013</v>
@@ -23880,13 +23803,13 @@
     </row>
     <row r="188" s="1" customFormat="1" ht="78.75" spans="1:7">
       <c r="A188" s="5" t="s">
-        <v>2267</v>
+        <v>2258</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>2268</v>
+        <v>2259</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>2269</v>
+        <v>2260</v>
       </c>
       <c r="D188" s="3">
         <v>2016</v>
@@ -23898,15 +23821,15 @@
         <v>406</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>2270</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" ht="78.75" spans="1:7">
       <c r="A189" s="8" t="s">
-        <v>2271</v>
+        <v>2262</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>2272</v>
+        <v>2263</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>190</v>
@@ -23915,7 +23838,7 @@
         <v>2015</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>2273</v>
+        <v>2264</v>
       </c>
       <c r="F189" s="14" t="s">
         <v>774</v>
@@ -23926,10 +23849,10 @@
     </row>
     <row r="190" s="1" customFormat="1" ht="56" spans="1:8">
       <c r="A190" s="19" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>2275</v>
+        <v>2266</v>
       </c>
       <c r="C190" s="19" t="s">
         <v>560</v>
@@ -23941,7 +23864,6 @@
         <v>10</v>
       </c>
       <c r="F190" s="19"/>
-      <c r="G190" s="1"/>
       <c r="H190" s="3"/>
     </row>
     <row r="191" spans="7:7">
